--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\template\Solaris\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="535" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="4" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="5" r:id="rId2"/>
-    <sheet name="チェックシート(Solaris)" sheetId="2" r:id="rId3"/>
-    <sheet name="テンプレート(Solaris)" sheetId="6" r:id="rId4"/>
+    <sheet name="検査レポート" sheetId="7" r:id="rId2"/>
+    <sheet name="エラーレポート" sheetId="8" r:id="rId3"/>
+    <sheet name="チェックシート(Solaris)" sheetId="2" r:id="rId4"/>
+    <sheet name="テンプレート(Solaris)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="243">
   <si>
     <t>Solaris</t>
   </si>
@@ -518,31 +519,7 @@
     <t>検査結果</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
     <t>os</t>
-  </si>
-  <si>
-    <t>os2</t>
-  </si>
-  <si>
-    <t>mem</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>net_mng</t>
-  </si>
-  <si>
-    <t>successrate</t>
-  </si>
-  <si>
-    <t>verifycomment</t>
   </si>
   <si>
     <t>Platform</t>
@@ -686,13 +663,147 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>success_rate</t>
+  </si>
+  <si>
+    <t>verify_comment</t>
+  </si>
+  <si>
+    <t>_base</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cpu_total</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mem_total</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>filesystem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>net_ip</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os_caption</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os_architecture</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>visible_memory</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Nic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iLO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PRIMERGY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検査対象</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>error_msg</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -741,8 +852,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +892,19 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -779,13 +927,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,8 +985,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="出力" xfId="1" builtinId="21"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1126,25 +1311,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -1240,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
@@ -1266,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
@@ -1626,158 +1811,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M7"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="11" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="1025" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="N3" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="65.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1800,16 +2241,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2507,11 +2948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2542,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>129</v>
@@ -2625,13 +3066,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>40</v>
@@ -2643,37 +3084,37 @@
         <v>151</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2691,13 +3132,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1">
         <v>6.7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -2709,37 +3150,37 @@
         <v>4000</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2758,29 +3199,29 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2809,7 +3250,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2838,7 +3279,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2867,7 +3308,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2896,7 +3337,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2925,7 +3366,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2954,7 +3395,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -2983,7 +3424,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -3012,7 +3453,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -3041,7 +3482,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="minoru"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="599"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId4"/>
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1530658140" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1530658140" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1530658140" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1530658140"/>
+      <pm:revision xmlns:pm="smNativeData" day="1531084461" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1531084461" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1531084461" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1531084461"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="208">
   <si>
     <t>共通設定</t>
   </si>
@@ -57,51 +57,75 @@
     <t>比較対象</t>
   </si>
   <si>
+    <t>特定パスワード</t>
+  </si>
+  <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>OSリリース</t>
+  </si>
+  <si>
+    <t>CPU数</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPU総数</t>
+  </si>
+  <si>
+    <t>メモリ[MB]</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>specific_password</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
     <t>Solaris</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>account_id</t>
-  </si>
-  <si>
-    <t>template_id</t>
-  </si>
-  <si>
-    <t>remote_alias</t>
-  </si>
-  <si>
-    <t>compare_server</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>cpu_real</t>
-  </si>
-  <si>
-    <t>cpu_core</t>
-  </si>
-  <si>
-    <t>cpu_total</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
     <t>m10</t>
   </si>
   <si>
@@ -135,16 +159,7 @@
     <t>接続IP</t>
   </si>
   <si>
-    <t>OS名</t>
-  </si>
-  <si>
-    <t>OSリリース</t>
-  </si>
-  <si>
     <t>カーネル情報</t>
-  </si>
-  <si>
-    <t>CPU数</t>
   </si>
   <si>
     <t>MEM容量</t>
@@ -631,9 +646,7 @@
     <t>5.11</t>
   </si>
   <si>
-    <r>
-      <t>net0</t>
-    </r>
+    <t>net0</t>
   </si>
   <si>
     <t>547G</t>
@@ -656,7 +669,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -665,7 +678,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -680,7 +693,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -696,7 +709,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -712,7 +725,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -728,7 +741,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -745,7 +758,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -761,7 +774,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -778,7 +791,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -792,7 +805,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="-3 0ｴｷﾃｯ" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -808,7 +821,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -823,7 +836,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -839,7 +852,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -855,23 +868,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
-            <pm:latin face="Meiryo UI" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1530658140" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084461" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -880,7 +877,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,7 +890,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -907,7 +904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -918,7 +915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -929,18 +926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -951,30 +937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -985,7 +948,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -995,17 +958,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1530658140" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084461" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1021,7 +995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140"/>
+          <pm:border xmlns:pm="smNativeData" id="1531084461"/>
         </ext>
       </extLst>
     </border>
@@ -1040,7 +1014,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1064,7 +1038,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1088,7 +1062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1112,7 +1086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1136,136 +1110,10 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1286,7 +1134,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1310,7 +1158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1333,7 +1181,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140">
+          <pm:border xmlns:pm="smNativeData" id="1531084461">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1356,7 +1204,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1530658140"/>
+          <pm:border xmlns:pm="smNativeData" id="1531084461"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084461"/>
         </ext>
       </extLst>
     </border>
@@ -1369,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,9 +1256,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1424,46 +1288,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,10 +1338,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1530658140" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1531084461" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1530658140" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1531084461" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1715,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1730,14 +1594,17 @@
     <col min="6" max="6" width="13.745455" customWidth="1"/>
     <col min="7" max="7" width="13.127273" customWidth="1"/>
     <col min="8" max="8" width="16.500000" customWidth="1"/>
-    <col min="9" max="9" width="10.763636" customWidth="1"/>
-    <col min="10" max="13" width="9.409091" customWidth="1"/>
-    <col min="14" max="14" width="11.245455" customWidth="1"/>
-    <col min="15" max="1023" width="8.745455" customWidth="1"/>
-    <col min="1024" max="1025" width="11.627273" customWidth="1"/>
+    <col min="9" max="9" width="16.527273" customWidth="1"/>
+    <col min="10" max="11" width="11.745455" customWidth="1"/>
+    <col min="12" max="12" width="7.481818" customWidth="1"/>
+    <col min="13" max="13" width="10.054545" customWidth="1"/>
+    <col min="14" max="14" width="8.663636" customWidth="1"/>
+    <col min="15" max="15" width="9.645455" customWidth="1"/>
+    <col min="16" max="1024" width="8.745455" customWidth="1"/>
+    <col min="1025" max="1026" width="11.627273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1756,8 +1623,9 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -1780,87 +1648,93 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1870,40 +1744,42 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="N5" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
@@ -1920,8 +1796,9 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
@@ -1938,8 +1815,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="n">
         <v>5</v>
       </c>
@@ -1956,8 +1834,9 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="n">
         <v>6</v>
       </c>
@@ -1974,8 +1853,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="n">
         <v>7</v>
       </c>
@@ -1992,8 +1872,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6" t="n">
         <v>8</v>
       </c>
@@ -2010,8 +1891,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6" t="n">
         <v>9</v>
       </c>
@@ -2028,8 +1910,9 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6" t="n">
         <v>10</v>
       </c>
@@ -2046,8 +1929,9 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="n">
         <v>11</v>
       </c>
@@ -2064,8 +1948,9 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="6" t="n">
         <v>12</v>
       </c>
@@ -2082,8 +1967,9 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="6" t="n">
         <v>13</v>
       </c>
@@ -2100,8 +1986,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6" t="n">
         <v>14</v>
       </c>
@@ -2118,8 +2005,9 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="6" t="n">
         <v>15</v>
       </c>
@@ -2136,8 +2024,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="6" t="n">
         <v>16</v>
       </c>
@@ -2154,8 +2043,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="6" t="n">
         <v>17</v>
       </c>
@@ -2172,8 +2062,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="6" t="n">
         <v>18</v>
       </c>
@@ -2190,8 +2081,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="6" t="n">
         <v>19</v>
       </c>
@@ -2208,8 +2100,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="6" t="n">
         <v>20</v>
       </c>
@@ -2226,16 +2119,17 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2246,16 +2140,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2268,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N4"/>
+    <sheetView view="normal" topLeftCell="D1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2287,298 +2181,338 @@
   <sheetData>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="5" spans="1:15" hidden="1">
+      <c r="A5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="6" spans="1:15" hidden="1">
+      <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="7" spans="1:15" hidden="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="8" spans="1:15" hidden="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="9" spans="1:15" hidden="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="10" spans="1:15" hidden="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="11" spans="1:15" hidden="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084461" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2587,16 +2521,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2624,33 +2558,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2685,7 +2619,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2694,16 +2628,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2732,714 +2666,714 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>69</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3450,16 +3384,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3498,157 +3432,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>9</v>
+      <c r="A1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="L2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="21" t="n">
+      <c r="B3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="n">
+      <c r="G3" s="20" t="n">
         <v>128000</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="H3" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="I3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>193</v>
       </c>
+      <c r="L3" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -3658,24 +3592,24 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>195</v>
+      <c r="K4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -3689,10 +3623,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3700,7 +3634,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -3721,7 +3655,7 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <f>A6+1</f>
         <v>5</v>
       </c>
@@ -3742,7 +3676,7 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <f>A7+1</f>
         <v>6</v>
       </c>
@@ -3763,7 +3697,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <f>A8+1</f>
         <v>7</v>
       </c>
@@ -3784,7 +3718,7 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f>A9+1</f>
         <v>8</v>
       </c>
@@ -3805,7 +3739,7 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <f>A10+1</f>
         <v>9</v>
       </c>
@@ -3826,7 +3760,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <f>A11+1</f>
         <v>10</v>
       </c>
@@ -3847,7 +3781,7 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f>A12+1</f>
         <v>11</v>
       </c>
@@ -3868,7 +3802,7 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <f>A13+1</f>
         <v>12</v>
       </c>
@@ -3889,7 +3823,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <f>A14+1</f>
         <v>13</v>
       </c>
@@ -3910,7 +3844,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <f>A15+1</f>
         <v>14</v>
       </c>
@@ -3931,7 +3865,7 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <f>A16+1</f>
         <v>15</v>
       </c>
@@ -3952,7 +3886,7 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <f>A17+1</f>
         <v>16</v>
       </c>
@@ -3973,7 +3907,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <f>A18+1</f>
         <v>17</v>
       </c>
@@ -3994,7 +3928,7 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <f>A19+1</f>
         <v>18</v>
       </c>
@@ -4015,7 +3949,7 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <f>A20+1</f>
         <v>19</v>
       </c>
@@ -4036,7 +3970,7 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <f>A21+1</f>
         <v>20</v>
       </c>
@@ -4057,1690 +3991,1690 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="15">
+      <c r="A66" s="14">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="15">
+      <c r="A68" s="14">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="15">
+      <c r="A70" s="14">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="15">
+      <c r="A72" s="14">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="15">
+      <c r="A74" s="14">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="15">
+      <c r="A76" s="14">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="15">
+      <c r="A78" s="14">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="15">
+      <c r="A84" s="14">
         <f>A83+1</f>
         <v>82</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <f>A84+1</f>
         <v>83</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="15">
+      <c r="A86" s="14">
         <f>A85+1</f>
         <v>84</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="15">
+      <c r="A87" s="14">
         <f>A86+1</f>
         <v>85</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="15">
+      <c r="A88" s="14">
         <f>A87+1</f>
         <v>86</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="15">
+      <c r="A89" s="14">
         <f>A88+1</f>
         <v>87</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="15">
+      <c r="A90" s="14">
         <f>A89+1</f>
         <v>88</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="15">
+      <c r="A91" s="14">
         <f>A90+1</f>
         <v>89</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="15">
+      <c r="A92" s="14">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="15">
+      <c r="A93" s="14">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="15">
+      <c r="A94" s="14">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="15">
+      <c r="A96" s="14">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <f>A96+1</f>
         <v>95</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="15">
+      <c r="A98" s="14">
         <f>A97+1</f>
         <v>96</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="15">
+      <c r="A99" s="14">
         <f>A98+1</f>
         <v>97</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="15">
+      <c r="A100" s="14">
         <f>A99+1</f>
         <v>98</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="15">
+      <c r="A101" s="14">
         <f>A100+1</f>
         <v>99</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="15">
+      <c r="A102" s="14">
         <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5751,16 +5685,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5799,157 +5733,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>9</v>
+      <c r="A1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="L2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="21" t="n">
+      <c r="B3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="n">
+      <c r="G3" s="20" t="n">
         <v>128000</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="21" t="s">
+      <c r="H3" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>193</v>
       </c>
+      <c r="L3" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -5959,24 +5893,24 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>202</v>
+      <c r="K4" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -5997,7 +5931,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -6018,7 +5952,7 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <f>A6+1</f>
         <v>5</v>
       </c>
@@ -6039,7 +5973,7 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <f>A7+1</f>
         <v>6</v>
       </c>
@@ -6060,7 +5994,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <f>A8+1</f>
         <v>7</v>
       </c>
@@ -6081,7 +6015,7 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f>A9+1</f>
         <v>8</v>
       </c>
@@ -6102,7 +6036,7 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <f>A10+1</f>
         <v>9</v>
       </c>
@@ -6123,7 +6057,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <f>A11+1</f>
         <v>10</v>
       </c>
@@ -6144,7 +6078,7 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f>A12+1</f>
         <v>11</v>
       </c>
@@ -6165,7 +6099,7 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <f>A13+1</f>
         <v>12</v>
       </c>
@@ -6186,7 +6120,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <f>A14+1</f>
         <v>13</v>
       </c>
@@ -6207,7 +6141,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <f>A15+1</f>
         <v>14</v>
       </c>
@@ -6228,7 +6162,7 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <f>A16+1</f>
         <v>15</v>
       </c>
@@ -6249,7 +6183,7 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <f>A17+1</f>
         <v>16</v>
       </c>
@@ -6270,7 +6204,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <f>A18+1</f>
         <v>17</v>
       </c>
@@ -6291,7 +6225,7 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <f>A19+1</f>
         <v>18</v>
       </c>
@@ -6312,7 +6246,7 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <f>A20+1</f>
         <v>19</v>
       </c>
@@ -6333,7 +6267,7 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <f>A21+1</f>
         <v>20</v>
       </c>
@@ -6354,1690 +6288,1690 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="15">
+      <c r="A66" s="14">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="15">
+      <c r="A68" s="14">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="15">
+      <c r="A70" s="14">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="15">
+      <c r="A72" s="14">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="15">
+      <c r="A74" s="14">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="15">
+      <c r="A76" s="14">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="15">
+      <c r="A78" s="14">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="15">
+      <c r="A84" s="14">
         <f>A83+1</f>
         <v>82</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <f>A84+1</f>
         <v>83</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="15">
+      <c r="A86" s="14">
         <f>A85+1</f>
         <v>84</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="15">
+      <c r="A87" s="14">
         <f>A86+1</f>
         <v>85</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="15">
+      <c r="A88" s="14">
         <f>A87+1</f>
         <v>86</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="15">
+      <c r="A89" s="14">
         <f>A88+1</f>
         <v>87</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="15">
+      <c r="A90" s="14">
         <f>A89+1</f>
         <v>88</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="15">
+      <c r="A91" s="14">
         <f>A90+1</f>
         <v>89</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="15">
+      <c r="A92" s="14">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="15">
+      <c r="A93" s="14">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="15">
+      <c r="A94" s="14">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="15">
+      <c r="A96" s="14">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <f>A96+1</f>
         <v>95</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="15">
+      <c r="A98" s="14">
         <f>A97+1</f>
         <v>96</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="15">
+      <c r="A99" s="14">
         <f>A98+1</f>
         <v>97</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="15">
+      <c r="A100" s="14">
         <f>A99+1</f>
         <v>98</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="15">
+      <c r="A101" s="14">
         <f>A100+1</f>
         <v>99</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="15">
+      <c r="A102" s="14">
         <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1530658140" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084461" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8048,16 +7982,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1530658140" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1530658140" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084461" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084461" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530658140" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084461" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
   <si>
     <t>共通設定</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>solaris11_build</t>
-  </si>
-  <si>
-    <t>ビルドリリース</t>
   </si>
   <si>
     <t>Solaris 11 のビルドリリース情報</t>
@@ -653,9 +650,6 @@
     <t>net0</t>
   </si>
   <si>
-    <t>547G</t>
-  </si>
-  <si>
     <t>121G</t>
   </si>
   <si>
@@ -717,6 +711,41 @@
   </si>
   <si>
     <t>Solaris</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>solaris11_build.version</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>solaris11_build.sru</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris11ビルドリリース</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris11バージョン</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris11 SRU</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris 11 バージョン</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris 11 Support Repository Update</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/export/home</t>
+  </si>
+  <si>
+    <t>547G</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -959,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,9 +1052,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1050,17 +1076,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,28 +1429,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -1470,17 +1496,17 @@
       <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="S2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1529,17 +1555,17 @@
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="S3" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25">
@@ -1569,10 +1595,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
@@ -1606,10 +1632,10 @@
       <c r="N5" s="5">
         <v>48</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19">
@@ -1629,10 +1655,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19">
@@ -1652,10 +1678,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19">
@@ -1675,10 +1701,10 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19">
@@ -1698,10 +1724,10 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19">
@@ -1721,10 +1747,10 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19">
@@ -1744,10 +1770,10 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19">
@@ -1767,10 +1793,10 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19">
@@ -1790,10 +1816,10 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19">
@@ -1813,10 +1839,10 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19">
@@ -1836,10 +1862,10 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19">
@@ -1859,10 +1885,10 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19">
@@ -1882,10 +1908,10 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19">
@@ -1905,10 +1931,10 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19">
@@ -1928,10 +1954,10 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19">
@@ -1951,10 +1977,10 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19">
@@ -1974,10 +2000,10 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19">
@@ -1997,10 +2023,10 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19">
@@ -2020,10 +2046,10 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
       <c r="S23" s="5"/>
     </row>
   </sheetData>
@@ -2467,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F44"/>
+  <dimension ref="A4:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2827,19 +2853,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33" t="s">
-        <v>222</v>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
@@ -3124,48 +3150,46 @@
         <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A41" s="29"/>
       <c r="B41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>169</v>
+        <v>222</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="3" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>172</v>
+        <v>223</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3173,35 +3197,69 @@
         <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="27">
-      <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3286,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3324,31 +3382,31 @@
         <v>30</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -3356,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -3373,32 +3431,32 @@
       <c r="G3" s="19">
         <v>128000</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -3412,19 +3470,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
-        <v>216</v>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="M4" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3442,15 +3500,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="24" t="s">
-        <v>217</v>
+      <c r="I5" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3469,8 +3527,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="24" t="s">
-        <v>218</v>
+      <c r="I6" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3492,8 +3550,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="24" t="s">
-        <v>219</v>
+      <c r="I7" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -5521,7 +5579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5617,31 +5677,31 @@
         <v>30</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -5649,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>204</v>
+        <v>187</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -5667,31 +5727,31 @@
         <v>128000</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>206</v>
-      </c>
       <c r="M3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -5706,18 +5766,18 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="24" t="s">
-        <v>216</v>
+      <c r="I4" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="15" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -5735,8 +5795,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="24" t="s">
-        <v>217</v>
+      <c r="I5" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -5758,8 +5818,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="24" t="s">
-        <v>218</v>
+      <c r="I6" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -5781,8 +5841,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="24" t="s">
-        <v>219</v>
+      <c r="I7" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\template\Solaris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\template\Solaris\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Solaris10)" sheetId="5" r:id="rId5"/>
-    <sheet name="テンプレート(Solaris11)" sheetId="6" r:id="rId6"/>
+    <sheet name="利用手順" sheetId="7" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Solaris10)" sheetId="5" r:id="rId6"/>
+    <sheet name="テンプレート(Solaris11)" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1534066277" val="934" rev="123" revOS="4"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="293">
   <si>
     <t>共通設定</t>
   </si>
@@ -793,6 +794,417 @@
   </si>
   <si>
     <t>net_ip</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>インベントリ採取実行後、同ディレクトリで XSCF 管理インターフェースのHW構成情報収集をします。詳細は「.\template\Solaris\XSCFチェックシート.xlsx」を参照してください。</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>// Solaris 接続情報</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.password  = 'guest000'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* SPARC Solaris OSの構成情報を採取します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* Solaris10, Solaris11をサポートします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -879,7 +1291,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,8 +1334,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1047,6 +1465,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1056,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1712,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1456,11 +2076,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:T79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="1029" width="8.75" customWidth="1"/>
+    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="26"/>
+      <c r="C32" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="B34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.25">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <v>6</v>
+      </c>
+      <c r="O36" s="5">
+        <v>48</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="5">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="5">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="5">
+        <v>10</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="C50" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="30"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="C54" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="33"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="C56" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="36"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="C57" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="C58" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="39"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="C70" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="30"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="B73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="C75" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:T32"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1482,28 +2877,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -2128,11 +3523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2612,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F47"/>
   <sheetViews>
@@ -3398,2300 +4793,6 @@
       <c r="F47" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="1019" width="8.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17">
-        <v>32</v>
-      </c>
-      <c r="G3" s="17">
-        <v>128</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75">
-      <c r="A18" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75">
-      <c r="A19" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75">
-      <c r="A20" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75">
-      <c r="A21" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75">
-      <c r="A23" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75">
-      <c r="A24" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75">
-      <c r="A25" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75">
-      <c r="A26" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75">
-      <c r="A27" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75">
-      <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75">
-      <c r="A29" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75">
-      <c r="A30" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75">
-      <c r="A31" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75">
-      <c r="A32" s="11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75">
-      <c r="A33" s="11">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75">
-      <c r="A34" s="11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75">
-      <c r="A35" s="11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75">
-      <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
-        <v>34</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
-      <c r="A37" s="11">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75">
-      <c r="A38" s="11">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75">
-      <c r="A39" s="11">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="11">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75">
-      <c r="A41" s="11">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75">
-      <c r="A42" s="11">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75">
-      <c r="A43" s="11">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75">
-      <c r="A44" s="11">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75">
-      <c r="A45" s="11">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75">
-      <c r="A46" s="11">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75">
-      <c r="A47" s="11">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75">
-      <c r="A48" s="11">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75">
-      <c r="A49" s="11">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75">
-      <c r="A50" s="11">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75">
-      <c r="A51" s="11">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75">
-      <c r="A52" s="11">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75">
-      <c r="A53" s="11">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75">
-      <c r="A54" s="11">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75">
-      <c r="A55" s="11">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75">
-      <c r="A56" s="11">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75">
-      <c r="A57" s="11">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75">
-      <c r="A58" s="11">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75">
-      <c r="A59" s="11">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75">
-      <c r="A60" s="11">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75">
-      <c r="A61" s="11">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75">
-      <c r="A62" s="11">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75">
-      <c r="A63" s="11">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75">
-      <c r="A64" s="11">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75">
-      <c r="A65" s="11">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75">
-      <c r="A66" s="11">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75">
-      <c r="A67" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75">
-      <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75">
-      <c r="A69" s="11">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75">
-      <c r="A70" s="11">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75">
-      <c r="A71" s="11">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75">
-      <c r="A72" s="11">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75">
-      <c r="A73" s="11">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75">
-      <c r="A74" s="11">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75">
-      <c r="A75" s="11">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75">
-      <c r="A76" s="11">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75">
-      <c r="A77" s="11">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75">
-      <c r="A78" s="11">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-    </row>
-    <row r="79" spans="1:16" ht="15.75">
-      <c r="A79" s="11">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75">
-      <c r="A80" s="11">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75">
-      <c r="A81" s="11">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75">
-      <c r="A82" s="11">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75">
-      <c r="A83" s="11">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75">
-      <c r="A84" s="11">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75">
-      <c r="A85" s="11">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75">
-      <c r="A86" s="11">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75">
-      <c r="A87" s="11">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75">
-      <c r="A88" s="11">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75">
-      <c r="A89" s="11">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75">
-      <c r="A90" s="11">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75">
-      <c r="A91" s="11">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75">
-      <c r="A92" s="11">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75">
-      <c r="A93" s="11">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75">
-      <c r="A94" s="11">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-    </row>
-    <row r="95" spans="1:16" ht="15.75">
-      <c r="A95" s="11">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.75">
-      <c r="A96" s="11">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-    </row>
-    <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="11">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-    </row>
-    <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="11">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.75">
-      <c r="A99" s="11">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-    </row>
-    <row r="100" spans="1:16" ht="15.75">
-      <c r="A100" s="11">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-    </row>
-    <row r="101" spans="1:16" ht="15.75">
-      <c r="A101" s="11">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-    </row>
-    <row r="102" spans="1:16" ht="15.75">
-      <c r="A102" s="11">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -5728,6 +4829,2300 @@
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>32</v>
+      </c>
+      <c r="G3" s="17">
+        <v>128</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -1291,7 +1291,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1338,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1628,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1707,9 +1713,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1749,16 +1752,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2079,9 +2097,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T79"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2101,740 +2119,2065 @@
     <col min="1030" max="1031" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="40" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="40" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="40" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="C20" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="C21" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="40" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="C22" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="40" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="C23" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="40" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="C24" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="40" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="C25" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="40" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="C26" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="40" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="C27" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="40" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="C28" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="40" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="26"/>
-      <c r="C32" s="40" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="40" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="40"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" s="45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="26" t="s">
+      <c r="U33" s="40"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="N34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="S34" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="T34" s="45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="14.25">
-      <c r="B35" s="5">
+      <c r="U34" s="40"/>
+    </row>
+    <row r="35" spans="1:21" ht="14.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="46">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="B36" s="5">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="40"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="40"/>
+      <c r="B36" s="46">
         <v>2</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46">
         <v>6</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="46">
         <v>48</v>
       </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="B37" s="5">
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="40"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="40"/>
+      <c r="B37" s="46">
         <v>3</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="B38" s="5">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="40"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="40"/>
+      <c r="B38" s="46">
         <v>4</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="5">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="40"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="40"/>
+      <c r="B39" s="46">
         <v>5</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="5">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="40"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46">
         <v>6</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="5">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="40"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="40"/>
+      <c r="B41" s="46">
         <v>7</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="5">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="40"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="40"/>
+      <c r="B42" s="46">
         <v>8</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="5">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="40"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="40"/>
+      <c r="B43" s="46">
         <v>9</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="B44" s="5">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="40"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="40"/>
+      <c r="B44" s="46">
         <v>10</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="40"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="40" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="C50" s="28" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="B52" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="C54" s="31" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="33"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="36"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="C56" s="34" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="36"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="C57" s="34" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="36"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="C58" s="37" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="39"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="40" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="B62" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="C64" s="28" t="s">
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="30"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="40" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="C70" s="28" t="s">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="30"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" t="s">
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="C75" s="28" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="30"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="B77" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="C79" s="28" t="s">
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="30"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2877,28 +4220,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4396,7 +5739,7 @@
         <v>236</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9382,7 +10725,7 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="297">
   <si>
     <t>共通設定</t>
   </si>
@@ -1207,12 +1207,37 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>_redmine:SPARCサーバ</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1288,6 +1313,21 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1634,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,13 +1792,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1770,13 +1816,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,7 +2142,7 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2120,1321 +2163,1321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="42" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="40"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="L33" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="45" t="s">
+      <c r="N33" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="45" t="s">
+      <c r="P33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="45" t="s">
+      <c r="Q33" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="45" t="s">
+      <c r="R33" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="45" t="s">
+      <c r="S33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T33" s="45" t="s">
+      <c r="T33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U33" s="40"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="45" t="s">
+      <c r="P34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="45" t="s">
+      <c r="Q34" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="45" t="s">
+      <c r="R34" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="S34" s="45" t="s">
+      <c r="S34" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="45" t="s">
+      <c r="T34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="U34" s="40"/>
+      <c r="U34" s="39"/>
     </row>
     <row r="35" spans="1:21" ht="14.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="46">
+      <c r="A35" s="39"/>
+      <c r="B35" s="42">
         <v>1</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="40"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="40"/>
-      <c r="B36" s="46">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42">
         <v>2</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42">
         <v>6</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="42">
         <v>48</v>
       </c>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="40"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="39"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="40"/>
-      <c r="B37" s="46">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42">
         <v>3</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="40"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="39"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="40"/>
-      <c r="B38" s="46">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42">
         <v>4</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="40"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="39"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="40"/>
-      <c r="B39" s="46">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42">
         <v>5</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="40"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="39"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="40"/>
-      <c r="B40" s="46">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42">
         <v>6</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="40"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="39"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="40"/>
-      <c r="B41" s="46">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42">
         <v>7</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="40"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="39"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="40"/>
-      <c r="B42" s="46">
+      <c r="A42" s="39"/>
+      <c r="B42" s="42">
         <v>8</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="40"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="39"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="40"/>
-      <c r="B43" s="46">
+      <c r="A43" s="39"/>
+      <c r="B43" s="42">
         <v>9</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="40"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="39"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="40"/>
-      <c r="B44" s="46">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42">
         <v>10</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="40"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="39"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="27" t="s">
         <v>281</v>
       </c>
@@ -3449,88 +3492,88 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="29"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="30" t="s">
         <v>282</v>
       </c>
@@ -3545,17 +3588,17 @@
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
@@ -3568,17 +3611,17 @@
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="35"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="33" t="s">
         <v>283</v>
       </c>
@@ -3593,17 +3636,17 @@
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="35"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="33" t="s">
         <v>284</v>
       </c>
@@ -3618,17 +3661,17 @@
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="35"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="36" t="s">
         <v>285</v>
       </c>
@@ -3643,136 +3686,136 @@
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
       <c r="N58" s="38"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="27" t="s">
         <v>286</v>
       </c>
@@ -3787,136 +3830,136 @@
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="29"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40" t="s">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="27" t="s">
         <v>275</v>
       </c>
@@ -3931,113 +3974,113 @@
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="29"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="27" t="s">
         <v>278</v>
       </c>
@@ -4052,88 +4095,88 @@
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
       <c r="N75" s="29"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="27" t="s">
         <v>280</v>
       </c>
@@ -4148,36 +4191,36 @@
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="29"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4220,28 +4263,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4870,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4989,43 +5032,27 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9" t="s">
-        <v>39</v>
+      <c r="S5" s="48" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">
@@ -5035,28 +5062,50 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="9" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5070,11 +5119,15 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:19" hidden="1">
       <c r="A8" s="8"/>
@@ -5098,25 +5151,25 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" hidden="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" hidden="1">
       <c r="A10" s="10"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="300">
   <si>
     <t>共通設定</t>
   </si>
@@ -1231,6 +1231,21 @@
   <si>
     <t>_redmine:SPARCサーバ</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1807,6 +1822,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1817,9 +1835,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2140,9 +2155,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2938,28 +2953,28 @@
     <row r="32" spans="1:21">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="44" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:21">
@@ -4221,6 +4236,19 @@
       <c r="S80" s="39"/>
       <c r="T80" s="39"/>
       <c r="U80" s="39"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4263,28 +4291,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4899,6 +4927,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$83:$C$84</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -4913,7 +4951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5051,7 +5089,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="44" t="s">
         <v>296</v>
       </c>
     </row>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="304">
   <si>
     <t>共通設定</t>
   </si>
@@ -798,9 +798,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -1139,10 +1136,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1246,6 +1239,43 @@
   <si>
     <t>Solaris</t>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)は必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッシュ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -2155,7 +2185,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2202,7 +2232,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2251,7 +2281,7 @@
     <row r="4" spans="1:21">
       <c r="A4" s="39"/>
       <c r="B4" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -2276,7 +2306,7 @@
     <row r="5" spans="1:21">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -2301,7 +2331,7 @@
     <row r="6" spans="1:21">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -2348,7 +2378,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2397,7 +2427,7 @@
     <row r="10" spans="1:21">
       <c r="A10" s="39"/>
       <c r="B10" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -2422,7 +2452,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="39"/>
       <c r="B11" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -2447,7 +2477,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2566,7 +2596,7 @@
     <row r="17" spans="1:21">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -2591,7 +2621,7 @@
     <row r="18" spans="1:21">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -2638,12 +2668,14 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C20" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -2665,12 +2697,14 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C21" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>248</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -2692,12 +2726,14 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C22" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>249</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>250</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2719,12 +2755,14 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -2748,10 +2786,10 @@
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -2775,10 +2813,10 @@
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>255</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2802,10 +2840,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>256</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>257</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -2829,10 +2867,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>258</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>259</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -2856,10 +2894,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>266</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>267</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2905,7 +2943,7 @@
     <row r="30" spans="1:21">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -3396,7 +3434,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3445,7 +3483,7 @@
     <row r="48" spans="1:21">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -3494,7 +3532,7 @@
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -3541,7 +3579,7 @@
     <row r="52" spans="1:21">
       <c r="A52" s="39"/>
       <c r="B52" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -3590,7 +3628,7 @@
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3638,7 +3676,7 @@
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -3663,7 +3701,7 @@
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -3688,7 +3726,7 @@
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
@@ -3734,7 +3772,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -3783,7 +3821,7 @@
     <row r="62" spans="1:21">
       <c r="A62" s="39"/>
       <c r="B62" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
@@ -3832,7 +3870,7 @@
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -3878,7 +3916,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -3927,7 +3965,7 @@
     <row r="68" spans="1:21">
       <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -3976,7 +4014,7 @@
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -4023,7 +4061,7 @@
     <row r="72" spans="1:21">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -4048,7 +4086,7 @@
     <row r="73" spans="1:21">
       <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -4097,7 +4135,7 @@
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -4144,7 +4182,7 @@
     <row r="77" spans="1:21">
       <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -4192,20 +4230,20 @@
     <row r="79" spans="1:21">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
-      <c r="C79" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="29"/>
+      <c r="C79" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
@@ -4217,18 +4255,20 @@
     <row r="80" spans="1:21">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
+      <c r="C80" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
@@ -4237,17 +4277,159 @@
       <c r="T80" s="39"/>
       <c r="U80" s="39"/>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="81" spans="1:21">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="B88" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="C90" t="s">
         <v>297</v>
-      </c>
-      <c r="C82" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="C84" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +5113,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$83:$C$84</xm:f>
+            <xm:f>利用手順!$C$89:$C$90</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -5070,14 +5252,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5090,7 +5272,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="307">
   <si>
     <t>共通設定</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>network</t>
-  </si>
-  <si>
-    <t>nic</t>
   </si>
   <si>
     <t>XSCF</t>
@@ -1271,11 +1268,32 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>getconfig -rp {Redmineプロジェクト名}</t>
-    <rPh sb="28" eb="29">
+    <t>10.216.32.21</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_solaris.groovy -rp {Redmineプロジェクト名}</t>
+    <rPh sb="72" eb="73">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* template\Solaris\XSCFチェックシート.xlsx</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* オンプレの SPARC サーバの場合,同ディレクトリ下の以下の HW インベントリ収集シナリオを実行してください。</t>
+    <rPh sb="21" eb="22">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1376,7 +1394,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,6 +1446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1719,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,6 +1877,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2187,7 +2214,7 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2203,8 +2230,7 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="16" width="8.625" customWidth="1"/>
     <col min="17" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="1029" width="8.75" customWidth="1"/>
-    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2232,7 +2258,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2281,7 +2307,7 @@
     <row r="4" spans="1:21">
       <c r="A4" s="39"/>
       <c r="B4" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -2306,7 +2332,7 @@
     <row r="5" spans="1:21">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -2331,7 +2357,7 @@
     <row r="6" spans="1:21">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -2354,52 +2380,54 @@
       <c r="U6" s="39"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="39" t="s">
-        <v>260</v>
-      </c>
+      <c r="A8" s="45"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="C8" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="39"/>
@@ -2425,10 +2453,10 @@
       <c r="U9" s="39"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
-        <v>289</v>
-      </c>
+      <c r="A10" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -2451,9 +2479,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
-        <v>290</v>
-      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -2477,7 +2503,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2501,7 +2527,9 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -2524,7 +2552,9 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>260</v>
+      </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -2546,9 +2576,7 @@
       <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="39" t="s">
-        <v>245</v>
-      </c>
+      <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -2594,10 +2622,10 @@
       <c r="U16" s="39"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
-        <v>262</v>
-      </c>
+      <c r="A17" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
@@ -2620,9 +2648,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>298</v>
-      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
@@ -2645,7 +2671,9 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>261</v>
+      </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -2669,14 +2697,10 @@
     <row r="20" spans="1:21">
       <c r="A20" s="39"/>
       <c r="B20" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>263</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -2697,15 +2721,9 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>247</v>
-      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -2727,13 +2745,13 @@
     <row r="22" spans="1:21">
       <c r="A22" s="39"/>
       <c r="B22" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2756,13 +2774,13 @@
     <row r="23" spans="1:21">
       <c r="A23" s="39"/>
       <c r="B23" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -2784,12 +2802,14 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>298</v>
+      </c>
       <c r="C24" s="39" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -2811,12 +2831,14 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="39" t="s">
+        <v>298</v>
+      </c>
       <c r="C25" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2840,10 +2862,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -2867,10 +2889,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -2894,10 +2916,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2920,8 +2942,12 @@
     <row r="29" spans="1:21">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>257</v>
+      </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -2942,11 +2968,13 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>265</v>
+      </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -2990,268 +3018,266 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="47"/>
+      <c r="B32" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="41" t="s">
-        <v>19</v>
-      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="39"/>
-      <c r="B34" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="48"/>
       <c r="U34" s="39"/>
     </row>
-    <row r="35" spans="1:21" ht="14.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="39"/>
-      <c r="B35" s="42">
-        <v>1</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="39"/>
-      <c r="B36" s="42">
-        <v>2</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42">
-        <v>6</v>
-      </c>
-      <c r="O36" s="42">
-        <v>48</v>
-      </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
+      <c r="B36" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="U36" s="39"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" ht="14.25">
       <c r="A37" s="39"/>
       <c r="B37" s="42">
-        <v>3</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
       <c r="U37" s="39"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="39"/>
       <c r="B38" s="42">
-        <v>4</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
+      <c r="N38" s="42">
+        <v>6</v>
+      </c>
+      <c r="O38" s="42">
+        <v>48</v>
+      </c>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
@@ -3262,7 +3288,7 @@
     <row r="39" spans="1:21">
       <c r="A39" s="39"/>
       <c r="B39" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -3287,7 +3313,7 @@
     <row r="40" spans="1:21">
       <c r="A40" s="39"/>
       <c r="B40" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -3312,7 +3338,7 @@
     <row r="41" spans="1:21">
       <c r="A41" s="39"/>
       <c r="B41" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
@@ -3337,7 +3363,7 @@
     <row r="42" spans="1:21">
       <c r="A42" s="39"/>
       <c r="B42" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -3362,7 +3388,7 @@
     <row r="43" spans="1:21">
       <c r="A43" s="39"/>
       <c r="B43" s="42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -3387,7 +3413,7 @@
     <row r="44" spans="1:21">
       <c r="A44" s="39"/>
       <c r="B44" s="42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -3411,50 +3437,52 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
+      <c r="B45" s="42">
+        <v>9</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
       <c r="U45" s="39"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42">
+        <v>10</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
       <c r="U46" s="39"/>
     </row>
     <row r="47" spans="1:21">
@@ -3481,10 +3509,10 @@
       <c r="U47" s="39"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39" t="s">
-        <v>268</v>
-      </c>
+      <c r="A48" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
@@ -3530,21 +3558,21 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
+      <c r="B50" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="39"/>
       <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
@@ -3578,21 +3606,21 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="39"/>
-      <c r="B52" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
       <c r="Q52" s="39"/>
@@ -3626,21 +3654,21 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
+      <c r="B54" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
       <c r="Q54" s="39"/>
@@ -3652,18 +3680,18 @@
     <row r="55" spans="1:21">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="35"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
       <c r="Q55" s="39"/>
@@ -3675,20 +3703,20 @@
     <row r="56" spans="1:21">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
-      <c r="C56" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="35"/>
+      <c r="C56" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
       <c r="Q56" s="39"/>
@@ -3700,9 +3728,7 @@
     <row r="57" spans="1:21">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
-      <c r="C57" s="33" t="s">
-        <v>282</v>
-      </c>
+      <c r="C57" s="33"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
@@ -3725,20 +3751,20 @@
     <row r="58" spans="1:21">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
-      <c r="C58" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="38"/>
+      <c r="C58" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="39"/>
       <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
@@ -3750,18 +3776,20 @@
     <row r="59" spans="1:21">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
+      <c r="C59" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
@@ -3771,22 +3799,22 @@
       <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="39" t="s">
-        <v>270</v>
-      </c>
+      <c r="A60" s="39"/>
       <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
+      <c r="C60" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
       <c r="O60" s="39"/>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
@@ -3819,10 +3847,10 @@
       <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39" t="s">
-        <v>271</v>
-      </c>
+      <c r="A62" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -3868,21 +3896,21 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="29"/>
+      <c r="B64" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
       <c r="O64" s="39"/>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
@@ -3915,22 +3943,22 @@
       <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="39" t="s">
-        <v>272</v>
-      </c>
+      <c r="A66" s="39"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
+      <c r="C66" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="29"/>
       <c r="O66" s="39"/>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
@@ -3963,10 +3991,10 @@
       <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39" t="s">
-        <v>273</v>
-      </c>
+      <c r="A68" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
@@ -4012,21 +4040,21 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="29"/>
+      <c r="B70" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
       <c r="O70" s="39"/>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
@@ -4060,21 +4088,21 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="39"/>
-      <c r="B72" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="39"/>
       <c r="P72" s="39"/>
       <c r="Q72" s="39"/>
@@ -4085,9 +4113,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="39"/>
-      <c r="B73" s="39" t="s">
-        <v>276</v>
-      </c>
+      <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39"/>
@@ -4110,7 +4136,9 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="39" t="s">
+        <v>274</v>
+      </c>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
@@ -4133,21 +4161,21 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
+      <c r="B75" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
       <c r="O75" s="39"/>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
@@ -4181,21 +4209,21 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="39"/>
-      <c r="B77" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="39"/>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
@@ -4229,10 +4257,10 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39" t="s">
-        <v>300</v>
-      </c>
+      <c r="B79" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
       <c r="F79" s="39"/>
@@ -4255,20 +4283,18 @@
     <row r="80" spans="1:21">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
-      <c r="C80" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="29"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
@@ -4280,18 +4306,20 @@
     <row r="81" spans="1:21">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
+      <c r="C81" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
       <c r="O81" s="39"/>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
@@ -4303,20 +4331,20 @@
     <row r="82" spans="1:21">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
+      <c r="C82" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="39"/>
       <c r="P82" s="39"/>
       <c r="Q82" s="39"/>
@@ -4328,20 +4356,18 @@
     <row r="83" spans="1:21">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
-      <c r="C83" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="29"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
       <c r="O83" s="39"/>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
@@ -4353,7 +4379,9 @@
     <row r="84" spans="1:21">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="34" t="s">
+        <v>301</v>
+      </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
@@ -4376,18 +4404,20 @@
     <row r="85" spans="1:21">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
+      <c r="C85" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
@@ -4399,18 +4429,18 @@
     <row r="86" spans="1:21">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
       <c r="O86" s="39"/>
       <c r="P86" s="39"/>
       <c r="Q86" s="39"/>
@@ -4421,21 +4451,21 @@
     </row>
     <row r="88" spans="1:21">
       <c r="B88" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" t="s">
         <v>295</v>
-      </c>
-      <c r="C88" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:21">
       <c r="C90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:T32"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:T34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4467,34 +4497,32 @@
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="1028" width="8.75" customWidth="1"/>
-    <col min="1029" max="1030" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4623,14 +4651,12 @@
         <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="1"/>
@@ -4649,31 +4675,31 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42">
         <v>6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="42">
         <v>48</v>
       </c>
       <c r="O5" s="5"/>
@@ -5133,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5173,10 +5199,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>52</v>
@@ -5188,16 +5214,16 @@
         <v>54</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>56</v>
@@ -5252,14 +5278,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5272,7 +5298,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">
@@ -5295,7 +5321,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>34</v>
@@ -5304,17 +5330,17 @@
         <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -5340,13 +5366,13 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:19" hidden="1">
@@ -5551,16 +5577,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5568,16 +5594,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5647,27 +5673,27 @@
         <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -5677,43 +5703,43 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5722,7 +5748,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -5738,7 +5764,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -5751,67 +5777,67 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5820,14 +5846,14 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5836,14 +5862,14 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5852,217 +5878,217 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>235</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>236</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -6072,342 +6098,342 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6485,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -6530,31 +6556,31 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -6562,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -6580,31 +6606,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6620,17 +6646,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6649,14 +6675,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6676,7 +6702,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6699,7 +6725,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8754,7 +8780,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -8825,31 +8851,31 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -8857,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -8875,31 +8901,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="M3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -8915,17 +8941,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8944,7 +8970,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -8967,7 +8993,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8990,7 +9016,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="325">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -970,6 +970,76 @@
   </si>
   <si>
     <t>547G</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OS設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>サービス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パッケージ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>その他OS設定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>DNS設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>NTP設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SNMP設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1538,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,6 +1748,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4955,7 +5031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5485,788 +5561,919 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F47"/>
+  <dimension ref="A4:G47"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="64.375" customWidth="1"/>
-    <col min="7" max="1025" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="64.375" customWidth="1"/>
+    <col min="8" max="1026" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B21" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B22" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="27">
+    <row r="26" spans="1:7" ht="27">
       <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>140</v>
+      <c r="B26" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>217</v>
+      <c r="G26" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>212</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>243</v>
+      <c r="B36" s="48" t="s">
+        <v>317</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>246</v>
+      <c r="B37" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>249</v>
+      <c r="G37" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>252</v>
+      <c r="B39" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="2"/>
+      <c r="G39" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>255</v>
+      <c r="B40" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>258</v>
+      <c r="B41" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>261</v>
+      <c r="F41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>321</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>264</v>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>321</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2"/>
+      <c r="G46" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27">
+    <row r="47" spans="1:7" ht="27">
       <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="3" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10858,7 +11065,7 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="313">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -539,18 +539,9 @@
     <t>/sbin/uname -XコマンドからOSバージョン情報採取</t>
   </si>
   <si>
-    <t>├─OS名</t>
-  </si>
-  <si>
-    <t>├─OSリリース</t>
-  </si>
-  <si>
     <t>KernelID</t>
   </si>
   <si>
-    <t>└─カーネル情報</t>
-  </si>
-  <si>
     <t>カーネル情報</t>
   </si>
   <si>
@@ -566,33 +557,18 @@
     <t>model_name</t>
   </si>
   <si>
-    <t>├─プロセッサーモデル</t>
-  </si>
-  <si>
     <t>CPUプロセッサーモデル</t>
   </si>
   <si>
-    <t>├─CPUクロック</t>
-  </si>
-  <si>
     <t>CPUクロック数[MHz]</t>
   </si>
   <si>
-    <t>├─CPUスレッド数</t>
-  </si>
-  <si>
     <t>CPUスレッド数</t>
   </si>
   <si>
-    <t>├─CPUコア数</t>
-  </si>
-  <si>
     <t>CPUコア数。VMの場合は未記入</t>
   </si>
   <si>
-    <t>└─CPUソケット数</t>
-  </si>
-  <si>
     <t>CPUソケット数</t>
   </si>
   <si>
@@ -605,9 +581,6 @@
     <t>hostidコマンドでマシン識別子の検索</t>
   </si>
   <si>
-    <t>搭載メモリ量[MB]</t>
-  </si>
-  <si>
     <t>/usr/sbin/prtconfコマンドからメモリ構成を検索</t>
   </si>
   <si>
@@ -623,27 +596,18 @@
     <t>swap.alloc</t>
   </si>
   <si>
-    <t>├─swapアロケーション量[MB]</t>
-  </si>
-  <si>
     <t>swapアロケーション量</t>
   </si>
   <si>
     <t>swap.reserve</t>
   </si>
   <si>
-    <t>├─swapリザーブ量[MB]</t>
-  </si>
-  <si>
     <t>swapリザーブ量</t>
   </si>
   <si>
     <t>swap.available</t>
   </si>
   <si>
-    <t>└─swap利用可能[MB]</t>
-  </si>
-  <si>
     <t>swap利用可能</t>
   </si>
   <si>
@@ -659,9 +623,6 @@
     <t>net_ip</t>
   </si>
   <si>
-    <t>├─IPアドレス</t>
-  </si>
-  <si>
     <t>Solaris</t>
   </si>
   <si>
@@ -671,9 +632,6 @@
     <t>net_subnet</t>
   </si>
   <si>
-    <t>└─サブネットアドレス</t>
-  </si>
-  <si>
     <t>Solaris</t>
   </si>
   <si>
@@ -710,33 +668,6 @@
     <t>"df -ha"コマンドを実行して行数を検索。詳細は別シートに登録</t>
   </si>
   <si>
-    <t>filesystem./</t>
-  </si>
-  <si>
-    <t>├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t>ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t>filesystem./tmp</t>
-  </si>
-  <si>
-    <t>├─スワップ</t>
-  </si>
-  <si>
-    <t>スワップ容量</t>
-  </si>
-  <si>
-    <t>filesystem./export/home</t>
-  </si>
-  <si>
-    <t>└─/export/home マウントポイント</t>
-  </si>
-  <si>
-    <t>/export/home マウントポイント容量</t>
-  </si>
-  <si>
     <t>zpool</t>
   </si>
   <si>
@@ -755,15 +686,6 @@
     <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
   </si>
   <si>
-    <t>user.zabbix</t>
-  </si>
-  <si>
-    <t>└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t>zabbix ユーザの有無</t>
-  </si>
-  <si>
     <t>logon_test</t>
   </si>
   <si>
@@ -843,15 +765,6 @@
   </si>
   <si>
     <t>/etc/resolve.conf から nameserver を検索</t>
-  </si>
-  <si>
-    <t>nameservers</t>
-  </si>
-  <si>
-    <t>└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t>DNSサーバの検索</t>
   </si>
   <si>
     <t>NTPサーバ名</t>
@@ -1011,23 +924,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>その他OS設定</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>DNS設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>NTP設定</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
@@ -1040,6 +936,78 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OSリリース</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OS名</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OSリリース</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>カーネル情報</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロセッサーモデル</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Swapアロケーション量[MB]</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Swapリザーブ量[MB]</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Swap利用可能[MB]</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>搭載メモリ量[GB]</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>サブネットアドレス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>必須パッケージ</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>必須パッケージリスト</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1738,6 +1706,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1750,11 +1724,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2931,28 +2905,28 @@
     <row r="34" spans="1:21">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="43" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21">
@@ -4373,28 +4347,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -5561,16 +5535,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G47"/>
+  <dimension ref="A4:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="64.375" customWidth="1"/>
@@ -5581,14 +5557,14 @@
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>312</v>
+      <c r="B4" s="43" t="s">
+        <v>283</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>156</v>
@@ -5604,14 +5580,14 @@
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>313</v>
+      <c r="B5" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>71</v>
@@ -5625,14 +5601,14 @@
       <c r="A6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>313</v>
+      <c r="B6" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>71</v>
@@ -5646,614 +5622,618 @@
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>313</v>
+      <c r="B7" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>313</v>
+      <c r="B8" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
-      <c r="B9" s="48" t="s">
-        <v>313</v>
+      <c r="B9" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
-        <v>313</v>
+      <c r="B10" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="48" t="s">
-        <v>313</v>
+      <c r="B11" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>313</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="48" t="s">
-        <v>313</v>
+      <c r="B13" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="48" t="s">
-        <v>313</v>
+      <c r="A14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>314</v>
+      <c r="B15" s="44" t="s">
+        <v>284</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="48" t="s">
-        <v>314</v>
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>284</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="48" t="s">
-        <v>314</v>
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="48" t="s">
-        <v>314</v>
+      <c r="A18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>292</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="48" t="s">
-        <v>314</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>293</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="48" t="s">
-        <v>314</v>
+      <c r="B20" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>315</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>315</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="27.75" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
-      <c r="B23" s="48" t="s">
-        <v>315</v>
+      <c r="B23" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="48" t="s">
-        <v>315</v>
+      <c r="B24" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="48" t="s">
-        <v>315</v>
+      <c r="A25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="27">
-      <c r="A26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>316</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="48" t="s">
-        <v>316</v>
+      <c r="B27" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="48" t="s">
-        <v>316</v>
+      <c r="B28" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>316</v>
+      <c r="B29" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>317</v>
+      <c r="B30" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="27">
+      <c r="A33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="48" t="s">
-        <v>317</v>
+      <c r="B33" s="44" t="s">
+        <v>287</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G33" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="48" t="s">
-        <v>317</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="27">
+      <c r="A34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>287</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="48" t="s">
-        <v>317</v>
+      <c r="A35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>317</v>
+      <c r="B36" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>318</v>
+      <c r="B37" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
@@ -6262,61 +6242,65 @@
         <v>159</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="48" t="s">
-        <v>318</v>
+      <c r="A38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>318</v>
+      <c r="B39" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>319</v>
+      <c r="B40" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
@@ -6325,21 +6309,21 @@
         <v>159</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>320</v>
+      <c r="B41" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
@@ -6348,42 +6332,40 @@
         <v>159</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>247</v>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>311</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3" t="s">
-        <v>248</v>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="48" t="s">
-        <v>321</v>
+      <c r="B43" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>71</v>
@@ -6392,89 +6374,7 @@
         <v>159</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2"/>
-      <c r="B45" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="27">
-      <c r="A47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6597,31 +6497,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -6629,10 +6529,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -6647,31 +6547,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6687,17 +6587,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6716,14 +6616,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6743,7 +6643,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6766,7 +6666,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8892,31 +8792,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -8924,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -8942,31 +8842,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -8982,17 +8882,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -9011,7 +8911,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -9034,7 +8934,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -9057,7 +8957,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="305">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -618,24 +618,6 @@
   </si>
   <si>
     <t>/usr/sbin/ifconfig -a'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>net_ip</t>
-  </si>
-  <si>
-    <t>Solaris</t>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-  </si>
-  <si>
-    <t>net_subnet</t>
-  </si>
-  <si>
-    <t>Solaris</t>
-  </si>
-  <si>
-    <t>サブネットアドレス</t>
   </si>
   <si>
     <t>デフォルトゲートウェイ</t>
@@ -987,14 +969,6 @@
   </si>
   <si>
     <t>搭載メモリ量[GB]</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>サブネットアドレス</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1712,6 +1686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1723,12 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2905,28 +2879,28 @@
     <row r="34" spans="1:21">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="45" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
       <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21">
@@ -4347,28 +4321,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -5535,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G43"/>
+  <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5558,7 +5532,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>155</v>
@@ -5581,7 +5555,7 @@
         <v>159</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>106</v>
@@ -5602,7 +5576,7 @@
         <v>159</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>163</v>
@@ -5623,7 +5597,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>180</v>
@@ -5644,67 +5618,67 @@
         <v>159</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5720,10 +5694,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5739,10 +5713,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>168</v>
@@ -5760,7 +5734,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>166</v>
@@ -5781,20 +5755,20 @@
         <v>159</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5802,13 +5776,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
@@ -5817,7 +5791,7 @@
         <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5825,20 +5799,20 @@
         <v>159</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5846,10 +5820,10 @@
         <v>159</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>141</v>
@@ -5859,7 +5833,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
@@ -5867,29 +5841,29 @@
         <v>159</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>173</v>
@@ -5905,10 +5879,10 @@
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>136</v>
@@ -5924,10 +5898,10 @@
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5943,10 +5917,10 @@
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -5962,10 +5936,10 @@
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -5983,7 +5957,7 @@
         <v>159</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>171</v>
@@ -6002,10 +5976,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>186</v>
@@ -6021,10 +5995,10 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>188</v>
@@ -6040,10 +6014,10 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>190</v>
@@ -6061,7 +6035,7 @@
         <v>159</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>184</v>
@@ -6082,10 +6056,10 @@
         <v>159</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -6098,56 +6072,62 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B31" s="44" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -6156,42 +6136,40 @@
         <v>159</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -6200,7 +6178,7 @@
         <v>159</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6208,26 +6186,30 @@
         <v>159</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>212</v>
@@ -6238,9 +6220,7 @@
       <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
         <v>213</v>
       </c>
@@ -6250,7 +6230,7 @@
         <v>159</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>209</v>
@@ -6273,7 +6253,7 @@
         <v>159</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>218</v>
@@ -6284,32 +6264,30 @@
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>214</v>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>303</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>216</v>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6317,13 +6295,13 @@
         <v>159</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
@@ -6332,49 +6310,7 @@
         <v>159</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6497,31 +6433,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -6529,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -6547,31 +6483,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6587,17 +6523,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6616,14 +6552,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6643,7 +6579,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6666,7 +6602,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8792,31 +8728,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -8824,10 +8760,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -8842,31 +8778,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -8882,17 +8818,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8911,7 +8847,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -8934,7 +8870,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8957,7 +8893,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -2026,7 +2026,7 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5511,7 +5511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="チェックシート(Solaris)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(Solaris10)" sheetId="6" r:id="rId6"/>
     <sheet name="テンプレート(Solaris11)" sheetId="7" r:id="rId7"/>
+    <sheet name="テンプレート(Solaris10_sample)" sheetId="8" r:id="rId8"/>
+    <sheet name="テンプレート(Solaris11_sample)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="307">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -347,9 +349,6 @@
     <t>Solaris</t>
   </si>
   <si>
-    <t>10.216.32.21</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -636,9 +635,6 @@
   </si>
   <si>
     <t>metastat</t>
-  </si>
-  <si>
-    <t>ディスクRAID</t>
   </si>
   <si>
     <t>filesystem</t>
@@ -982,6 +978,22 @@
   </si>
   <si>
     <t>必須パッケージリスト</t>
+  </si>
+  <si>
+    <t>ソフトウェアRAID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SunOS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>FJSVsnap</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>igb0</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1550,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1702,6 +1714,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,7 +2056,9 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:T38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4301,7 +4333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4471,12 +4503,14 @@
         <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="1"/>
@@ -4504,10 +4538,10 @@
       <c r="D5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="39"/>
@@ -4998,75 +5032,75 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>53</v>
@@ -5089,37 +5123,37 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -5132,12 +5166,12 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5148,35 +5182,35 @@
         <v>61</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="M6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5186,16 +5220,16 @@
     </row>
     <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5208,13 +5242,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5435,33 +5469,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5512,7 +5546,7 @@
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5532,153 +5566,153 @@
         <v>74</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5694,10 +5728,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5713,195 +5747,195 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
       <c r="A19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5911,16 +5945,16 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -5930,16 +5964,16 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -5949,117 +5983,117 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -6069,88 +6103,88 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -6160,157 +6194,157 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
       <c r="B40" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>301</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>303</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6333,6 +6367,4545 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="26.625" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25">
+      <c r="A1" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
+      <c r="A2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25">
+      <c r="A4" s="56">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25">
+      <c r="A5" s="56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25">
+      <c r="A6" s="56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
@@ -6362,7 +10935,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6410,7 +10983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -6433,42 +11006,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="29.25" thickTop="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -6483,36 +11056,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -6523,17 +11096,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6552,14 +11125,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6579,7 +11152,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6602,7 +11175,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7202,7 +11775,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -7223,7 +11796,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -7244,7 +11817,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -7265,7 +11838,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -7286,7 +11859,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -7307,7 +11880,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -7328,7 +11901,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -7349,7 +11922,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -7370,7 +11943,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -7391,7 +11964,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -7412,7 +11985,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -7433,7 +12006,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -7454,7 +12027,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -7475,7 +12048,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -7496,7 +12069,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -7517,7 +12090,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -7538,7 +12111,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -7559,7 +12132,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -7580,7 +12153,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -7601,7 +12174,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -7622,7 +12195,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -7643,7 +12216,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -7664,7 +12237,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -7685,7 +12258,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -7706,7 +12279,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -7727,7 +12300,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -7748,7 +12321,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -7769,7 +12342,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -7790,7 +12363,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -7811,7 +12384,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -7832,7 +12405,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -7853,7 +12426,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -7874,7 +12447,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -7895,7 +12468,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -7916,7 +12489,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -7937,7 +12510,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -7958,7 +12531,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -7979,7 +12552,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -8000,7 +12573,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -8021,7 +12594,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -8042,7 +12615,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -8063,7 +12636,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -8084,7 +12657,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -8105,7 +12678,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -8126,7 +12699,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -8147,7 +12720,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -8168,7 +12741,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -8189,7 +12762,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -8210,7 +12783,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -8231,7 +12804,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -8252,7 +12825,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -8273,7 +12846,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -8294,7 +12867,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -8315,7 +12888,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -8336,7 +12909,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -8357,7 +12930,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -8378,7 +12951,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -8399,7 +12972,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -8420,7 +12993,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -8441,7 +13014,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -8462,7 +13035,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -8483,7 +13056,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -8504,7 +13077,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -8525,7 +13098,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -8546,7 +13119,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -8567,7 +13140,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -8588,7 +13161,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -8615,23 +13188,15 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8657,7 +13222,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -8705,7 +13270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -8728,42 +13293,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickTop="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -8778,36 +13343,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>261</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -8818,17 +13383,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8847,7 +13412,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -8870,7 +13435,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8893,7 +13458,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -9493,7 +14058,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -9514,7 +14079,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -9535,7 +14100,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -9556,7 +14121,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -9577,7 +14142,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -9598,7 +14163,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -9619,7 +14184,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -9640,7 +14205,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -9661,7 +14226,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -9682,7 +14247,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -9703,7 +14268,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -9724,7 +14289,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -9745,7 +14310,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -9766,7 +14331,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -9787,7 +14352,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -9808,7 +14373,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -9829,7 +14394,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -9850,7 +14415,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -9871,7 +14436,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -9892,7 +14457,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -9913,7 +14478,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -9934,7 +14499,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -9955,7 +14520,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -9976,7 +14541,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -9997,7 +14562,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -10018,7 +14583,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -10039,7 +14604,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -10060,7 +14625,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -10081,7 +14646,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -10102,7 +14667,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -10123,7 +14688,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -10144,7 +14709,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -10165,7 +14730,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -10186,7 +14751,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -10207,7 +14772,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -10228,7 +14793,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -10249,7 +14814,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -10270,7 +14835,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -10291,7 +14856,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -10312,7 +14877,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -10333,7 +14898,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -10354,7 +14919,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -10375,7 +14940,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -10396,7 +14961,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -10417,7 +14982,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -10438,7 +15003,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -10459,7 +15024,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -10480,7 +15045,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -10501,7 +15066,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -10522,7 +15087,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -10543,7 +15108,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -10564,7 +15129,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -10585,7 +15150,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -10606,7 +15171,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -10627,7 +15192,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -10648,7 +15213,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -10669,7 +15234,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -10690,7 +15255,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -10711,7 +15276,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -10732,7 +15297,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -10753,7 +15318,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -10774,7 +15339,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -10795,7 +15360,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -10816,7 +15381,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -10837,7 +15402,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -10858,7 +15423,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -10879,7 +15444,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -10906,13 +15471,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -448,9 +448,6 @@
     <t>filesystem</t>
   </si>
   <si>
-    <t>net_ip</t>
-  </si>
-  <si>
     <t>net_subnet</t>
   </si>
   <si>
@@ -993,6 +990,10 @@
   </si>
   <si>
     <t>igb0</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>network</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1704,18 +1705,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1721,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2056,9 +2057,7 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:T38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2911,28 +2910,28 @@
     <row r="34" spans="1:21">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21">
@@ -4333,7 +4332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4353,28 +4352,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -5013,9 +5012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U15"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5200,17 +5197,17 @@
         <v>136</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5226,10 +5223,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5242,13 +5239,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5469,16 +5466,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5486,16 +5483,16 @@
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5566,153 +5563,153 @@
         <v>74</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5728,10 +5725,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5747,176 +5744,176 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>135</v>
@@ -5926,16 +5923,16 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5945,16 +5942,16 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -5964,16 +5961,16 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -5983,117 +5980,117 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -6103,88 +6100,88 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -6194,157 +6191,157 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
       <c r="B40" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="45" t="s">
         <v>300</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>301</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6393,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6467,31 +6464,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -6499,35 +6496,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6543,7 +6540,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6566,7 +6563,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6589,7 +6586,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6612,7 +6609,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8664,232 +8661,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25">
-      <c r="A1" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="N2" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="P2" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="P2" s="52" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
-      <c r="A3" s="53">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="56">
+      <c r="A4" s="52">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+        <v>260</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="56">
+      <c r="A5" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+        <v>264</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="56">
+      <c r="A6" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
     </row>
     <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
@@ -10935,7 +10932,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -11006,31 +11003,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickTop="1">
@@ -11038,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -11056,31 +11053,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -11096,17 +11093,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -11125,14 +11122,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11152,7 +11149,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11175,7 +11172,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -13222,7 +13219,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -13293,31 +13290,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickTop="1">
@@ -13325,10 +13322,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13343,31 +13340,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>272</v>
-      </c>
       <c r="M3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -13383,17 +13380,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13412,7 +13409,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13435,7 +13432,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13458,7 +13455,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -352,9 +352,6 @@
     <t>sol1</t>
   </si>
   <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
     <t>Test_telnet</t>
   </si>
   <si>
@@ -966,6 +963,10 @@
   </si>
   <si>
     <t>547G</t>
+  </si>
+  <si>
+    <t>102.168.10.3</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -4173,7 +4174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4413,10 +4416,10 @@
         <v>104</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>75</v>
@@ -4880,75 +4883,75 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>53</v>
@@ -4971,37 +4974,37 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -5014,12 +5017,12 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5030,35 +5033,35 @@
         <v>61</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="M6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5068,16 +5071,16 @@
     </row>
     <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5090,13 +5093,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5317,33 +5320,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5414,40 +5417,40 @@
         <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>71</v>
@@ -5455,20 +5458,20 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>71</v>
@@ -5476,20 +5479,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>71</v>
@@ -5497,20 +5500,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>71</v>
@@ -5519,17 +5522,17 @@
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>71</v>
@@ -5538,17 +5541,17 @@
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>71</v>
@@ -5557,10 +5560,10 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5576,10 +5579,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5595,17 +5598,17 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>71</v>
@@ -5613,20 +5616,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>71</v>
@@ -5634,20 +5637,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>71</v>
@@ -5655,22 +5658,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>71</v>
@@ -5678,20 +5681,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>71</v>
@@ -5699,20 +5702,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
@@ -5720,20 +5723,20 @@
     </row>
     <row r="19" spans="1:7" ht="27">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
@@ -5742,17 +5745,17 @@
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -5761,17 +5764,17 @@
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
@@ -5780,17 +5783,17 @@
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
@@ -5799,17 +5802,17 @@
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
@@ -5818,17 +5821,17 @@
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
@@ -5836,20 +5839,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
@@ -5858,17 +5861,17 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
@@ -5877,17 +5880,17 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -5896,17 +5899,17 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -5914,20 +5917,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -5935,20 +5938,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
@@ -5956,22 +5959,22 @@
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
@@ -5979,20 +5982,20 @@
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
@@ -6000,22 +6003,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -6023,16 +6026,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -6042,22 +6045,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
@@ -6065,22 +6068,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
@@ -6088,20 +6091,20 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
@@ -6109,22 +6112,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>71</v>
@@ -6132,22 +6135,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>71</v>
@@ -6156,17 +6159,17 @@
     <row r="40" spans="1:7">
       <c r="A40" s="38"/>
       <c r="B40" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="D40" s="38" t="s">
         <v>266</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>267</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>71</v>
@@ -6174,22 +6177,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>71</v>
@@ -6244,7 +6247,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6315,31 +6318,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -6347,35 +6350,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>283</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>285</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6391,7 +6394,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6414,7 +6417,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6437,7 +6440,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6460,7 +6463,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8513,7 +8516,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>71</v>
@@ -8584,31 +8587,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>280</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
@@ -8616,35 +8619,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>294</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>295</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J3" s="42"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="O3" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="P3" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
@@ -8660,7 +8663,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="44"/>
@@ -8683,7 +8686,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
@@ -8706,7 +8709,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
@@ -8729,7 +8732,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
       <c r="I7" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
@@ -10783,7 +10786,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -10854,31 +10857,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -10886,10 +10889,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>283</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -10904,31 +10907,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="K3" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -10944,17 +10947,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -10973,14 +10976,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11000,7 +11003,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11023,7 +11026,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -13078,7 +13081,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -13149,31 +13152,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -13181,10 +13184,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13199,31 +13202,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -13239,17 +13242,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13268,7 +13271,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13291,7 +13294,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13314,7 +13317,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="326">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -965,7 +965,106 @@
     <t>547G</t>
   </si>
   <si>
-    <t>102.168.10.3</t>
+    <t>coreadm</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>coreadmコマンドからコアダンプ設定を検索</t>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>psrinfo</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>psrinfo コマンドからプロセッサ構成を検索</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ipadm</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>zoneadm</t>
+  </si>
+  <si>
+    <t>zoneadmコマンドからSolarisゾーン設定を検索</t>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solarisゾーン設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロセッサ状態</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コアダンプ有効化設定</t>
+    <rPh sb="5" eb="8">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solarisゾーンプール設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>poolstat</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>poolstat -r allコマンドからSolarisゾーンプール設定を検索</t>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/etc/system設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>system_etc</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/etc/system から システムパラメータを検索</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10.20.129.13</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -4175,7 +4274,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4416,7 +4515,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>105</v>
@@ -5394,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G41"/>
+  <dimension ref="A4:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5705,114 +5804,122 @@
         <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>320</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:7" ht="27">
+      <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
@@ -5824,35 +5931,33 @@
         <v>205</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
@@ -5861,17 +5966,17 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
@@ -5880,17 +5985,17 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -5899,17 +6004,17 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -5920,17 +6025,17 @@
         <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -5941,84 +6046,74 @@
         <v>161</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="2" t="s">
-        <v>161</v>
-      </c>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
-      <c r="A32" s="2" t="s">
-        <v>161</v>
-      </c>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -6029,16 +6124,18 @@
         <v>161</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
       </c>
@@ -6048,86 +6145,84 @@
         <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="27">
       <c r="A38" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>71</v>
@@ -6138,39 +6233,39 @@
         <v>161</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39" t="s">
-        <v>267</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
         <v>71</v>
       </c>
@@ -6180,28 +6275,160 @@
         <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Solaris/Solarisチェックシート.xlsx
+++ b/template/Solaris/Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="338">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>CPU数</t>
-  </si>
-  <si>
-    <t>MEM容量</t>
   </si>
   <si>
     <t>_redmine:SPARCサーバ</t>
@@ -2025,23 +2022,23 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="3.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" customWidth="1"/>
-    <col min="9" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="16" width="8.6328125" customWidth="1"/>
-    <col min="17" max="20" width="10.453125" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3022,7 +3019,7 @@
       </c>
       <c r="U36" s="30"/>
     </row>
-    <row r="37" spans="1:21" ht="13.5">
+    <row r="37" spans="1:21" ht="14.25">
       <c r="A37" s="30"/>
       <c r="B37" s="35">
         <v>1</v>
@@ -4300,25 +4297,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="18.36328125" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4346,7 +4343,7 @@
       <c r="R1" s="54"/>
       <c r="S1" s="55"/>
       <c r="T1" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4406,7 +4403,7 @@
         <v>51</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4468,10 +4465,10 @@
         <v>70</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="40.5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4479,13 +4476,13 @@
         <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -4502,7 +4499,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="45"/>
       <c r="T4" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4529,7 +4526,7 @@
       <c r="S5" s="47"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="13.5">
+    <row r="6" spans="1:20" ht="14.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4999,20 +4996,20 @@
   <dimension ref="A3:U15"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="8" width="17.08984375" customWidth="1"/>
-    <col min="9" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="18" width="23.36328125" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
-    <col min="20" max="20" width="35.26953125" customWidth="1"/>
-    <col min="21" max="21" width="28.90625" customWidth="1"/>
-    <col min="22" max="1032" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="18" width="23.375" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="35.25" customWidth="1"/>
+    <col min="21" max="21" width="28.875" customWidth="1"/>
+    <col min="22" max="1032" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21">
@@ -5137,11 +5134,11 @@
       <c r="I5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -5151,7 +5148,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:21" hidden="1">
@@ -5167,35 +5164,35 @@
         <v>61</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="M6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5211,10 +5208,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5227,13 +5224,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5443,27 +5440,27 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="3" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5471,16 +5468,16 @@
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5534,16 +5531,16 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="64.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="64.375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="1025" width="11.6328125" customWidth="1"/>
+    <col min="8" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7">
@@ -5551,40 +5548,40 @@
         <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>71</v>
@@ -5592,20 +5589,20 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>71</v>
@@ -5613,20 +5610,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>71</v>
@@ -5634,20 +5631,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>71</v>
@@ -5656,17 +5653,17 @@
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>71</v>
@@ -5675,17 +5672,17 @@
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>71</v>
@@ -5694,10 +5691,10 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5713,10 +5710,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5732,17 +5729,17 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>71</v>
@@ -5750,20 +5747,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>71</v>
@@ -5771,20 +5768,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>71</v>
@@ -5792,22 +5789,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>71</v>
@@ -5815,20 +5812,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>71</v>
@@ -5836,20 +5833,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
@@ -5857,20 +5854,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
@@ -5878,20 +5875,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -5899,20 +5896,20 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
@@ -5920,41 +5917,41 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26">
+    <row r="23" spans="1:7" ht="27">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
@@ -5963,17 +5960,17 @@
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
@@ -5982,17 +5979,17 @@
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
@@ -6001,17 +5998,17 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
@@ -6020,17 +6017,17 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -6039,17 +6036,17 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -6057,20 +6054,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -6078,20 +6075,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
@@ -6100,17 +6097,17 @@
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
@@ -6119,17 +6116,17 @@
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
@@ -6138,17 +6135,17 @@
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -6156,20 +6153,20 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
@@ -6177,108 +6174,108 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="26">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="26">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="39">
+    <row r="38" spans="1:7" ht="40.5">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="26">
+    <row r="39" spans="1:7" ht="27">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>71</v>
@@ -6286,22 +6283,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>71</v>
@@ -6309,16 +6306,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
@@ -6326,24 +6323,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="26">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>71</v>
@@ -6351,22 +6348,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>71</v>
@@ -6374,22 +6371,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>71</v>
@@ -6397,20 +6394,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>71</v>
@@ -6418,22 +6415,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>71</v>
@@ -6441,22 +6438,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>71</v>
@@ -6465,17 +6462,17 @@
     <row r="48" spans="1:7">
       <c r="A48" s="38"/>
       <c r="B48" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="D48" s="38" t="s">
         <v>284</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>285</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>71</v>
@@ -6483,22 +6480,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>71</v>
@@ -6506,22 +6503,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>71</v>
@@ -6554,29 +6551,29 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
-    <col min="15" max="16" width="9.6328125" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" customWidth="1"/>
-    <col min="18" max="1020" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="16" width="9.625" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="1020" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6627,7 +6624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -6650,74 +6647,74 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="Q2" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>299</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>300</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>306</v>
-      </c>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -6730,7 +6727,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6741,7 +6738,7 @@
       <c r="P4" s="45"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6754,7 +6751,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6765,7 +6762,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6778,7 +6775,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6789,7 +6786,7 @@
       <c r="P6" s="45"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6802,7 +6799,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -6813,7 +6810,7 @@
       <c r="P7" s="45"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6835,7 +6832,7 @@
       <c r="P8" s="45"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6857,7 +6854,7 @@
       <c r="P9" s="45"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6879,7 +6876,7 @@
       <c r="P10" s="45"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6901,7 +6898,7 @@
       <c r="P11" s="45"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6923,7 +6920,7 @@
       <c r="P12" s="45"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6945,7 +6942,7 @@
       <c r="P13" s="45"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6967,7 +6964,7 @@
       <c r="P14" s="45"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6989,7 +6986,7 @@
       <c r="P15" s="45"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7011,7 +7008,7 @@
       <c r="P16" s="45"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="15.75">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7033,7 +7030,7 @@
       <c r="P17" s="45"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="15.75">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7055,7 +7052,7 @@
       <c r="P18" s="45"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" ht="15.75">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7077,7 +7074,7 @@
       <c r="P19" s="45"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17" ht="15.75">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7099,7 +7096,7 @@
       <c r="P20" s="45"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15">
+    <row r="21" spans="1:17" ht="15.75">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7121,7 +7118,7 @@
       <c r="P21" s="45"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15">
+    <row r="22" spans="1:17" ht="15.75">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7143,7 +7140,7 @@
       <c r="P22" s="45"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15">
+    <row r="23" spans="1:17" ht="15.75">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7165,7 +7162,7 @@
       <c r="P23" s="46"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15.75">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7187,7 +7184,7 @@
       <c r="P24" s="46"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="15">
+    <row r="25" spans="1:17" ht="15.75">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7209,7 +7206,7 @@
       <c r="P25" s="46"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17" ht="15.75">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7231,7 +7228,7 @@
       <c r="P26" s="46"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17" ht="15.75">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7253,7 +7250,7 @@
       <c r="P27" s="46"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15.75">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7275,7 +7272,7 @@
       <c r="P28" s="46"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7297,7 +7294,7 @@
       <c r="P29" s="46"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7319,7 +7316,7 @@
       <c r="P30" s="46"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17" ht="15.75">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7341,7 +7338,7 @@
       <c r="P31" s="46"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17" ht="15.75">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7363,7 +7360,7 @@
       <c r="P32" s="46"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17" ht="15.75">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7385,7 +7382,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17" ht="15.75">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7407,7 +7404,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="15">
+    <row r="35" spans="1:17" ht="15.75">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7429,7 +7426,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="15">
+    <row r="36" spans="1:17" ht="15.75">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -7451,7 +7448,7 @@
       <c r="P36" s="46"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="15">
+    <row r="37" spans="1:17" ht="15.75">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7473,7 +7470,7 @@
       <c r="P37" s="46"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="15">
+    <row r="38" spans="1:17" ht="15.75">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7495,7 +7492,7 @@
       <c r="P38" s="46"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="15">
+    <row r="39" spans="1:17" ht="15.75">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7517,7 +7514,7 @@
       <c r="P39" s="46"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17" ht="15.75">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7539,7 +7536,7 @@
       <c r="P40" s="46"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="15">
+    <row r="41" spans="1:17" ht="15.75">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7561,7 +7558,7 @@
       <c r="P41" s="46"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="1:17" ht="15">
+    <row r="42" spans="1:17" ht="15.75">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7583,7 +7580,7 @@
       <c r="P42" s="46"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="15">
+    <row r="43" spans="1:17" ht="15.75">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7605,7 +7602,7 @@
       <c r="P43" s="46"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="15">
+    <row r="44" spans="1:17" ht="15.75">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7627,7 +7624,7 @@
       <c r="P44" s="46"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="15">
+    <row r="45" spans="1:17" ht="15.75">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7649,7 +7646,7 @@
       <c r="P45" s="46"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="15">
+    <row r="46" spans="1:17" ht="15.75">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7671,7 +7668,7 @@
       <c r="P46" s="46"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="15">
+    <row r="47" spans="1:17" ht="15.75">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7693,7 +7690,7 @@
       <c r="P47" s="46"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="15">
+    <row r="48" spans="1:17" ht="15.75">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7715,7 +7712,7 @@
       <c r="P48" s="46"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:17" ht="15">
+    <row r="49" spans="1:17" ht="15.75">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7737,7 +7734,7 @@
       <c r="P49" s="46"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:17" ht="15">
+    <row r="50" spans="1:17" ht="15.75">
       <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7759,7 +7756,7 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17" ht="15.75">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7781,7 +7778,7 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" ht="15.75">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7803,7 +7800,7 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:17" ht="15">
+    <row r="53" spans="1:17" ht="15.75">
       <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7825,7 +7822,7 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17" ht="15.75">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7847,7 +7844,7 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:17" ht="15">
+    <row r="55" spans="1:17" ht="15.75">
       <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7869,7 +7866,7 @@
       <c r="P55" s="46"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:17" ht="15">
+    <row r="56" spans="1:17" ht="15.75">
       <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7891,7 +7888,7 @@
       <c r="P56" s="46"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17" ht="15">
+    <row r="57" spans="1:17" ht="15.75">
       <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7913,7 +7910,7 @@
       <c r="P57" s="46"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="15">
+    <row r="58" spans="1:17" ht="15.75">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7935,7 +7932,7 @@
       <c r="P58" s="46"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:17" ht="15">
+    <row r="59" spans="1:17" ht="15.75">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7957,7 +7954,7 @@
       <c r="P59" s="46"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:17" ht="15">
+    <row r="60" spans="1:17" ht="15.75">
       <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7979,7 +7976,7 @@
       <c r="P60" s="46"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" ht="15">
+    <row r="61" spans="1:17" ht="15.75">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8001,7 +7998,7 @@
       <c r="P61" s="46"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:17" ht="15">
+    <row r="62" spans="1:17" ht="15.75">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8023,7 +8020,7 @@
       <c r="P62" s="46"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:17" ht="15">
+    <row r="63" spans="1:17" ht="15.75">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8045,7 +8042,7 @@
       <c r="P63" s="46"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:17" ht="15">
+    <row r="64" spans="1:17" ht="15.75">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8067,7 +8064,7 @@
       <c r="P64" s="46"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" ht="15">
+    <row r="65" spans="1:17" ht="15.75">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8089,7 +8086,7 @@
       <c r="P65" s="46"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" ht="15">
+    <row r="66" spans="1:17" ht="15.75">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8111,7 +8108,7 @@
       <c r="P66" s="46"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="1:17" ht="15">
+    <row r="67" spans="1:17" ht="15.75">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8133,7 +8130,7 @@
       <c r="P67" s="46"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="1:17" ht="15">
+    <row r="68" spans="1:17" ht="15.75">
       <c r="A68" s="11">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -8155,7 +8152,7 @@
       <c r="P68" s="46"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="1:17" ht="15">
+    <row r="69" spans="1:17" ht="15.75">
       <c r="A69" s="11">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -8177,7 +8174,7 @@
       <c r="P69" s="46"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="1:17" ht="15">
+    <row r="70" spans="1:17" ht="15.75">
       <c r="A70" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -8199,7 +8196,7 @@
       <c r="P70" s="46"/>
       <c r="Q70" s="11"/>
     </row>
-    <row r="71" spans="1:17" ht="15">
+    <row r="71" spans="1:17" ht="15.75">
       <c r="A71" s="11">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -8221,7 +8218,7 @@
       <c r="P71" s="46"/>
       <c r="Q71" s="11"/>
     </row>
-    <row r="72" spans="1:17" ht="15">
+    <row r="72" spans="1:17" ht="15.75">
       <c r="A72" s="11">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -8243,7 +8240,7 @@
       <c r="P72" s="46"/>
       <c r="Q72" s="11"/>
     </row>
-    <row r="73" spans="1:17" ht="15">
+    <row r="73" spans="1:17" ht="15.75">
       <c r="A73" s="11">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -8265,7 +8262,7 @@
       <c r="P73" s="46"/>
       <c r="Q73" s="11"/>
     </row>
-    <row r="74" spans="1:17" ht="15">
+    <row r="74" spans="1:17" ht="15.75">
       <c r="A74" s="11">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -8287,7 +8284,7 @@
       <c r="P74" s="46"/>
       <c r="Q74" s="11"/>
     </row>
-    <row r="75" spans="1:17" ht="15">
+    <row r="75" spans="1:17" ht="15.75">
       <c r="A75" s="11">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -8309,7 +8306,7 @@
       <c r="P75" s="46"/>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="1:17" ht="15">
+    <row r="76" spans="1:17" ht="15.75">
       <c r="A76" s="11">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -8331,7 +8328,7 @@
       <c r="P76" s="46"/>
       <c r="Q76" s="11"/>
     </row>
-    <row r="77" spans="1:17" ht="15">
+    <row r="77" spans="1:17" ht="15.75">
       <c r="A77" s="11">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -8353,7 +8350,7 @@
       <c r="P77" s="46"/>
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" spans="1:17" ht="15">
+    <row r="78" spans="1:17" ht="15.75">
       <c r="A78" s="11">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -8375,7 +8372,7 @@
       <c r="P78" s="46"/>
       <c r="Q78" s="11"/>
     </row>
-    <row r="79" spans="1:17" ht="15">
+    <row r="79" spans="1:17" ht="15.75">
       <c r="A79" s="11">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -8397,7 +8394,7 @@
       <c r="P79" s="46"/>
       <c r="Q79" s="11"/>
     </row>
-    <row r="80" spans="1:17" ht="15">
+    <row r="80" spans="1:17" ht="15.75">
       <c r="A80" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -8419,7 +8416,7 @@
       <c r="P80" s="46"/>
       <c r="Q80" s="11"/>
     </row>
-    <row r="81" spans="1:17" ht="15">
+    <row r="81" spans="1:17" ht="15.75">
       <c r="A81" s="11">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -8441,7 +8438,7 @@
       <c r="P81" s="46"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="1:17" ht="15">
+    <row r="82" spans="1:17" ht="15.75">
       <c r="A82" s="11">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -8463,7 +8460,7 @@
       <c r="P82" s="46"/>
       <c r="Q82" s="11"/>
     </row>
-    <row r="83" spans="1:17" ht="15">
+    <row r="83" spans="1:17" ht="15.75">
       <c r="A83" s="11">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -8485,7 +8482,7 @@
       <c r="P83" s="46"/>
       <c r="Q83" s="11"/>
     </row>
-    <row r="84" spans="1:17" ht="15">
+    <row r="84" spans="1:17" ht="15.75">
       <c r="A84" s="11">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -8507,7 +8504,7 @@
       <c r="P84" s="46"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="1:17" ht="15">
+    <row r="85" spans="1:17" ht="15.75">
       <c r="A85" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -8529,7 +8526,7 @@
       <c r="P85" s="46"/>
       <c r="Q85" s="11"/>
     </row>
-    <row r="86" spans="1:17" ht="15">
+    <row r="86" spans="1:17" ht="15.75">
       <c r="A86" s="11">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -8551,7 +8548,7 @@
       <c r="P86" s="46"/>
       <c r="Q86" s="11"/>
     </row>
-    <row r="87" spans="1:17" ht="15">
+    <row r="87" spans="1:17" ht="15.75">
       <c r="A87" s="11">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -8573,7 +8570,7 @@
       <c r="P87" s="46"/>
       <c r="Q87" s="11"/>
     </row>
-    <row r="88" spans="1:17" ht="15">
+    <row r="88" spans="1:17" ht="15.75">
       <c r="A88" s="11">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -8595,7 +8592,7 @@
       <c r="P88" s="46"/>
       <c r="Q88" s="11"/>
     </row>
-    <row r="89" spans="1:17" ht="15">
+    <row r="89" spans="1:17" ht="15.75">
       <c r="A89" s="11">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -8617,7 +8614,7 @@
       <c r="P89" s="46"/>
       <c r="Q89" s="11"/>
     </row>
-    <row r="90" spans="1:17" ht="15">
+    <row r="90" spans="1:17" ht="15.75">
       <c r="A90" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -8639,7 +8636,7 @@
       <c r="P90" s="46"/>
       <c r="Q90" s="11"/>
     </row>
-    <row r="91" spans="1:17" ht="15">
+    <row r="91" spans="1:17" ht="15.75">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -8661,7 +8658,7 @@
       <c r="P91" s="46"/>
       <c r="Q91" s="11"/>
     </row>
-    <row r="92" spans="1:17" ht="15">
+    <row r="92" spans="1:17" ht="15.75">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -8683,7 +8680,7 @@
       <c r="P92" s="46"/>
       <c r="Q92" s="11"/>
     </row>
-    <row r="93" spans="1:17" ht="15">
+    <row r="93" spans="1:17" ht="15.75">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -8705,7 +8702,7 @@
       <c r="P93" s="46"/>
       <c r="Q93" s="11"/>
     </row>
-    <row r="94" spans="1:17" ht="15">
+    <row r="94" spans="1:17" ht="15.75">
       <c r="A94" s="11">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -8727,7 +8724,7 @@
       <c r="P94" s="46"/>
       <c r="Q94" s="11"/>
     </row>
-    <row r="95" spans="1:17" ht="15">
+    <row r="95" spans="1:17" ht="15.75">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -8749,7 +8746,7 @@
       <c r="P95" s="46"/>
       <c r="Q95" s="11"/>
     </row>
-    <row r="96" spans="1:17" ht="15">
+    <row r="96" spans="1:17" ht="15.75">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -8771,7 +8768,7 @@
       <c r="P96" s="46"/>
       <c r="Q96" s="11"/>
     </row>
-    <row r="97" spans="1:17" ht="15">
+    <row r="97" spans="1:17" ht="15.75">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -8793,7 +8790,7 @@
       <c r="P97" s="46"/>
       <c r="Q97" s="11"/>
     </row>
-    <row r="98" spans="1:17" ht="15">
+    <row r="98" spans="1:17" ht="15.75">
       <c r="A98" s="11">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -8815,7 +8812,7 @@
       <c r="P98" s="46"/>
       <c r="Q98" s="11"/>
     </row>
-    <row r="99" spans="1:17" ht="15">
+    <row r="99" spans="1:17" ht="15.75">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -8837,7 +8834,7 @@
       <c r="P99" s="46"/>
       <c r="Q99" s="11"/>
     </row>
-    <row r="100" spans="1:17" ht="15">
+    <row r="100" spans="1:17" ht="15.75">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -8859,7 +8856,7 @@
       <c r="P100" s="46"/>
       <c r="Q100" s="11"/>
     </row>
-    <row r="101" spans="1:17" ht="15">
+    <row r="101" spans="1:17" ht="15.75">
       <c r="A101" s="11">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -8881,7 +8878,7 @@
       <c r="P101" s="46"/>
       <c r="Q101" s="11"/>
     </row>
-    <row r="102" spans="1:17" ht="15">
+    <row r="102" spans="1:17" ht="15.75">
       <c r="A102" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -8930,31 +8927,31 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" customWidth="1"/>
-    <col min="16" max="16" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="24.26953125" customWidth="1"/>
-    <col min="18" max="1019" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="26.625" customWidth="1"/>
+    <col min="17" max="17" width="24.25" customWidth="1"/>
+    <col min="18" max="1019" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>71</v>
@@ -9005,7 +9002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5" thickBot="1">
+    <row r="2" spans="1:17" ht="16.5" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>52</v>
       </c>
@@ -9028,74 +9025,74 @@
         <v>66</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="41" t="s">
-        <v>298</v>
-      </c>
       <c r="Q2" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14" thickTop="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickTop="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>311</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>312</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>306</v>
-      </c>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="13.5">
+    <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -9108,7 +9105,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="43"/>
@@ -9119,7 +9116,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="13.5">
+    <row r="5" spans="1:17" ht="14.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9132,7 +9129,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -9143,7 +9140,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="13.5">
+    <row r="6" spans="1:17" ht="14.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9156,7 +9153,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -9167,7 +9164,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="13.5">
+    <row r="7" spans="1:17" ht="14.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9180,7 +9177,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -9191,7 +9188,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9213,7 +9210,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9235,7 +9232,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9257,7 +9254,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9279,7 +9276,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9301,7 +9298,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9323,7 +9320,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9345,7 +9342,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9367,7 +9364,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9389,7 +9386,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="15.75">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9411,7 +9408,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="15.75">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9433,7 +9430,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" ht="15.75">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9455,7 +9452,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17" ht="15.75">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9477,7 +9474,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15">
+    <row r="21" spans="1:17" ht="15.75">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9499,7 +9496,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15">
+    <row r="22" spans="1:17" ht="15.75">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9521,7 +9518,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15">
+    <row r="23" spans="1:17" ht="15.75">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9543,7 +9540,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15.75">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9565,7 +9562,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="15">
+    <row r="25" spans="1:17" ht="15.75">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9587,7 +9584,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17" ht="15.75">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9609,7 +9606,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17" ht="15.75">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9631,7 +9628,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15.75">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9653,7 +9650,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9675,7 +9672,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9697,7 +9694,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17" ht="15.75">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9719,7 +9716,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17" ht="15.75">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9741,7 +9738,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17" ht="15.75">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -9763,7 +9760,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17" ht="15.75">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -9785,7 +9782,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="15">
+    <row r="35" spans="1:17" ht="15.75">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -9807,7 +9804,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="15">
+    <row r="36" spans="1:17" ht="15.75">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -9829,7 +9826,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="15">
+    <row r="37" spans="1:17" ht="15.75">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9851,7 +9848,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="15">
+    <row r="38" spans="1:17" ht="15.75">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9873,7 +9870,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="15">
+    <row r="39" spans="1:17" ht="15.75">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9895,7 +9892,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17" ht="15.75">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -9917,7 +9914,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="15">
+    <row r="41" spans="1:17" ht="15.75">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9939,7 +9936,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="1:17" ht="15">
+    <row r="42" spans="1:17" ht="15.75">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9961,7 +9958,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="15">
+    <row r="43" spans="1:17" ht="15.75">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9983,7 +9980,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="15">
+    <row r="44" spans="1:17" ht="15.75">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -10005,7 +10002,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="15">
+    <row r="45" spans="1:17" ht="15.75">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -10027,7 +10024,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="15">
+    <row r="46" spans="1:17" ht="15.75">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -10049,7 +10046,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="15">
+    <row r="47" spans="1:17" ht="15.75">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -10071,7 +10068,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="15">
+    <row r="48" spans="1:17" ht="15.75">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -10093,7 +10090,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:17" ht="15">
+    <row r="49" spans="1:17" ht="15.75">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -10115,7 +10112,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:17" ht="15">
+    <row r="50" spans="1:17" ht="15.75">
       <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -10137,7 +10134,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17" ht="15.75">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -10159,7 +10156,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" ht="15.75">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -10181,7 +10178,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:17" ht="15">
+    <row r="53" spans="1:17" ht="15.75">
       <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -10203,7 +10200,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17" ht="15.75">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -10225,7 +10222,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:17" ht="15">
+    <row r="55" spans="1:17" ht="15.75">
       <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -10247,7 +10244,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:17" ht="15">
+    <row r="56" spans="1:17" ht="15.75">
       <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -10269,7 +10266,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17" ht="15">
+    <row r="57" spans="1:17" ht="15.75">
       <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -10291,7 +10288,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="15">
+    <row r="58" spans="1:17" ht="15.75">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -10313,7 +10310,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:17" ht="15">
+    <row r="59" spans="1:17" ht="15.75">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10335,7 +10332,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:17" ht="15">
+    <row r="60" spans="1:17" ht="15.75">
       <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10357,7 +10354,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" ht="15">
+    <row r="61" spans="1:17" ht="15.75">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10379,7 +10376,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:17" ht="15">
+    <row r="62" spans="1:17" ht="15.75">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10401,7 +10398,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:17" ht="15">
+    <row r="63" spans="1:17" ht="15.75">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10423,7 +10420,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:17" ht="15">
+    <row r="64" spans="1:17" ht="15.75">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -10445,7 +10442,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" ht="15">
+    <row r="65" spans="1:17" ht="15.75">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -10467,7 +10464,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" ht="15">
+    <row r="66" spans="1:17" ht="15.75">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -10489,7 +10486,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="1:17" ht="15">
+    <row r="67" spans="1:17" ht="15.75">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -10511,7 +10508,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="1:17" ht="15">
+    <row r="68" spans="1:17" ht="15.75">
       <c r="A68" s="11">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -10533,7 +10530,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="1:17" ht="15">
+    <row r="69" spans="1:17" ht="15.75">
       <c r="A69" s="11">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -10555,7 +10552,7 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="1:17" ht="15">
+    <row r="70" spans="1:17" ht="15.75">
       <c r="A70" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -10577,7 +10574,7 @@
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
     </row>
-    <row r="71" spans="1:17" ht="15">
+    <row r="71" spans="1:17" ht="15.75">
       <c r="A71" s="11">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -10599,7 +10596,7 @@
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
     </row>
-    <row r="72" spans="1:17" ht="15">
+    <row r="72" spans="1:17" ht="15.75">
       <c r="A72" s="11">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -10621,7 +10618,7 @@
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
     </row>
-    <row r="73" spans="1:17" ht="15">
+    <row r="73" spans="1:17" ht="15.75">
       <c r="A73" s="11">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -10643,7 +10640,7 @@
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
     </row>
-    <row r="74" spans="1:17" ht="15">
+    <row r="74" spans="1:17" ht="15.75">
       <c r="A74" s="11">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -10665,7 +10662,7 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
     </row>
-    <row r="75" spans="1:17" ht="15">
+    <row r="75" spans="1:17" ht="15.75">
       <c r="A75" s="11">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -10687,7 +10684,7 @@
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="1:17" ht="15">
+    <row r="76" spans="1:17" ht="15.75">
       <c r="A76" s="11">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -10709,7 +10706,7 @@
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
     </row>
-    <row r="77" spans="1:17" ht="15">
+    <row r="77" spans="1:17" ht="15.75">
       <c r="A77" s="11">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -10731,7 +10728,7 @@
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" spans="1:17" ht="15">
+    <row r="78" spans="1:17" ht="15.75">
       <c r="A78" s="11">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -10753,7 +10750,7 @@
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
     </row>
-    <row r="79" spans="1:17" ht="15">
+    <row r="79" spans="1:17" ht="15.75">
       <c r="A79" s="11">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -10775,7 +10772,7 @@
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
     </row>
-    <row r="80" spans="1:17" ht="15">
+    <row r="80" spans="1:17" ht="15.75">
       <c r="A80" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -10797,7 +10794,7 @@
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
     </row>
-    <row r="81" spans="1:17" ht="15">
+    <row r="81" spans="1:17" ht="15.75">
       <c r="A81" s="11">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -10819,7 +10816,7 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="1:17" ht="15">
+    <row r="82" spans="1:17" ht="15.75">
       <c r="A82" s="11">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -10841,7 +10838,7 @@
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
     </row>
-    <row r="83" spans="1:17" ht="15">
+    <row r="83" spans="1:17" ht="15.75">
       <c r="A83" s="11">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -10863,7 +10860,7 @@
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
     </row>
-    <row r="84" spans="1:17" ht="15">
+    <row r="84" spans="1:17" ht="15.75">
       <c r="A84" s="11">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -10885,7 +10882,7 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="1:17" ht="15">
+    <row r="85" spans="1:17" ht="15.75">
       <c r="A85" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -10907,7 +10904,7 @@
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
     </row>
-    <row r="86" spans="1:17" ht="15">
+    <row r="86" spans="1:17" ht="15.75">
       <c r="A86" s="11">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -10929,7 +10926,7 @@
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
     </row>
-    <row r="87" spans="1:17" ht="15">
+    <row r="87" spans="1:17" ht="15.75">
       <c r="A87" s="11">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -10951,7 +10948,7 @@
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
     </row>
-    <row r="88" spans="1:17" ht="15">
+    <row r="88" spans="1:17" ht="15.75">
       <c r="A88" s="11">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -10973,7 +10970,7 @@
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
     </row>
-    <row r="89" spans="1:17" ht="15">
+    <row r="89" spans="1:17" ht="15.75">
       <c r="A89" s="11">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -10995,7 +10992,7 @@
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
     </row>
-    <row r="90" spans="1:17" ht="15">
+    <row r="90" spans="1:17" ht="15.75">
       <c r="A90" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -11017,7 +11014,7 @@
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
     </row>
-    <row r="91" spans="1:17" ht="15">
+    <row r="91" spans="1:17" ht="15.75">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -11039,7 +11036,7 @@
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
     </row>
-    <row r="92" spans="1:17" ht="15">
+    <row r="92" spans="1:17" ht="15.75">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -11061,7 +11058,7 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
     </row>
-    <row r="93" spans="1:17" ht="15">
+    <row r="93" spans="1:17" ht="15.75">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -11083,7 +11080,7 @@
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
     </row>
-    <row r="94" spans="1:17" ht="15">
+    <row r="94" spans="1:17" ht="15.75">
       <c r="A94" s="11">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -11105,7 +11102,7 @@
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
     </row>
-    <row r="95" spans="1:17" ht="15">
+    <row r="95" spans="1:17" ht="15.75">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -11127,7 +11124,7 @@
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
     </row>
-    <row r="96" spans="1:17" ht="15">
+    <row r="96" spans="1:17" ht="15.75">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -11149,7 +11146,7 @@
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
     </row>
-    <row r="97" spans="1:17" ht="15">
+    <row r="97" spans="1:17" ht="15.75">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -11171,7 +11168,7 @@
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
     </row>
-    <row r="98" spans="1:17" ht="15">
+    <row r="98" spans="1:17" ht="15.75">
       <c r="A98" s="11">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -11193,7 +11190,7 @@
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
     </row>
-    <row r="99" spans="1:17" ht="15">
+    <row r="99" spans="1:17" ht="15.75">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -11215,7 +11212,7 @@
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
     </row>
-    <row r="100" spans="1:17" ht="15">
+    <row r="100" spans="1:17" ht="15.75">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -11237,7 +11234,7 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
     </row>
-    <row r="101" spans="1:17" ht="15">
+    <row r="101" spans="1:17" ht="15.75">
       <c r="A101" s="11">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -11259,7 +11256,7 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
     </row>
-    <row r="102" spans="1:17" ht="15">
+    <row r="102" spans="1:17" ht="15.75">
       <c r="A102" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -11308,29 +11305,29 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="12" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" customWidth="1"/>
-    <col min="17" max="1019" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -11378,7 +11375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -11401,42 +11398,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="27">
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>299</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>300</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -11451,34 +11448,34 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="K3" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -11491,23 +11488,23 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -11520,21 +11517,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11547,7 +11544,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11557,7 +11554,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11570,7 +11567,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11580,7 +11577,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11601,7 +11598,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11622,7 +11619,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11643,7 +11640,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11664,7 +11661,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11685,7 +11682,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11706,7 +11703,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11727,7 +11724,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11748,7 +11745,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11769,7 +11766,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11790,7 +11787,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11811,7 +11808,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11832,7 +11829,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11853,7 +11850,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11874,7 +11871,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11895,7 +11892,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15">
+    <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11916,7 +11913,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="15">
+    <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11937,7 +11934,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="15">
+    <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11958,7 +11955,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11979,7 +11976,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="15">
+    <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12000,7 +11997,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" ht="15">
+    <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12021,7 +12018,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" ht="15">
+    <row r="29" spans="1:16" ht="15.75">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12042,7 +12039,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16" ht="15.75">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12063,7 +12060,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" ht="15">
+    <row r="31" spans="1:16" ht="15.75">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12084,7 +12081,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" ht="15">
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12105,7 +12102,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16" ht="15.75">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12126,7 +12123,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="15">
+    <row r="34" spans="1:16" ht="15.75">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12147,7 +12144,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12168,7 +12165,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="1:16" ht="15">
+    <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -12189,7 +12186,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -12210,7 +12207,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
-    <row r="38" spans="1:16" ht="15">
+    <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -12231,7 +12228,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -12252,7 +12249,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -12273,7 +12270,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -12294,7 +12291,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -12315,7 +12312,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -12336,7 +12333,7 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
     </row>
-    <row r="44" spans="1:16" ht="15">
+    <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -12357,7 +12354,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -12378,7 +12375,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="1:16" ht="15">
+    <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -12399,7 +12396,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -12420,7 +12417,7 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="1:16" ht="15">
+    <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -12441,7 +12438,7 @@
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -12462,7 +12459,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="1:16" ht="15">
+    <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -12483,7 +12480,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
     </row>
-    <row r="51" spans="1:16" ht="15">
+    <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -12504,7 +12501,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="1:16" ht="15">
+    <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -12525,7 +12522,7 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
     </row>
-    <row r="53" spans="1:16" ht="15">
+    <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -12546,7 +12543,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="1:16" ht="15">
+    <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -12567,7 +12564,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
     </row>
-    <row r="55" spans="1:16" ht="15">
+    <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -12588,7 +12585,7 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
     </row>
-    <row r="56" spans="1:16" ht="15">
+    <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -12609,7 +12606,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="1:16" ht="15">
+    <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -12630,7 +12627,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="1:16" ht="15">
+    <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -12651,7 +12648,7 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="1:16" ht="15">
+    <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -12672,7 +12669,7 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="1:16" ht="15">
+    <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -12693,7 +12690,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="1:16" ht="15">
+    <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -12714,7 +12711,7 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="1:16" ht="15">
+    <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -12735,7 +12732,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
     </row>
-    <row r="63" spans="1:16" ht="15">
+    <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -12756,7 +12753,7 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
     </row>
-    <row r="64" spans="1:16" ht="15">
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -12777,7 +12774,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
     </row>
-    <row r="65" spans="1:16" ht="15">
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -12798,7 +12795,7 @@
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
     </row>
-    <row r="66" spans="1:16" ht="15">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -12819,7 +12816,7 @@
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
     </row>
-    <row r="67" spans="1:16" ht="15">
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -12840,7 +12837,7 @@
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -12861,7 +12858,7 @@
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
     </row>
-    <row r="69" spans="1:16" ht="15">
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -12882,7 +12879,7 @@
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" spans="1:16" ht="15">
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -12903,7 +12900,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
     </row>
-    <row r="71" spans="1:16" ht="15">
+    <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -12924,7 +12921,7 @@
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
     </row>
-    <row r="72" spans="1:16" ht="15">
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -12945,7 +12942,7 @@
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
     </row>
-    <row r="73" spans="1:16" ht="15">
+    <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -12966,7 +12963,7 @@
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
     </row>
-    <row r="74" spans="1:16" ht="15">
+    <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -12987,7 +12984,7 @@
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
     </row>
-    <row r="75" spans="1:16" ht="15">
+    <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -13008,7 +13005,7 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
     </row>
-    <row r="76" spans="1:16" ht="15">
+    <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -13029,7 +13026,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
     </row>
-    <row r="77" spans="1:16" ht="15">
+    <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -13050,7 +13047,7 @@
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
     </row>
-    <row r="78" spans="1:16" ht="15">
+    <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -13071,7 +13068,7 @@
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
     </row>
-    <row r="79" spans="1:16" ht="15">
+    <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -13092,7 +13089,7 @@
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="1:16" ht="15">
+    <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -13113,7 +13110,7 @@
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="1:16" ht="15">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -13134,7 +13131,7 @@
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -13155,7 +13152,7 @@
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="1:16" ht="15">
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -13176,7 +13173,7 @@
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
     </row>
-    <row r="84" spans="1:16" ht="15">
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -13197,7 +13194,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="1:16" ht="15">
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -13218,7 +13215,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -13239,7 +13236,7 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -13260,7 +13257,7 @@
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -13281,7 +13278,7 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -13302,7 +13299,7 @@
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -13323,7 +13320,7 @@
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
     </row>
-    <row r="91" spans="1:16" ht="15">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -13344,7 +13341,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
     </row>
-    <row r="92" spans="1:16" ht="15">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -13365,7 +13362,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -13386,7 +13383,7 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="1:16" ht="15">
+    <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -13407,7 +13404,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
     </row>
-    <row r="95" spans="1:16" ht="15">
+    <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -13428,7 +13425,7 @@
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
     </row>
-    <row r="96" spans="1:16" ht="15">
+    <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -13449,7 +13446,7 @@
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
     </row>
-    <row r="97" spans="1:16" ht="15">
+    <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -13470,7 +13467,7 @@
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
     </row>
-    <row r="98" spans="1:16" ht="15">
+    <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -13491,7 +13488,7 @@
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
     </row>
-    <row r="99" spans="1:16" ht="15">
+    <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -13512,7 +13509,7 @@
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
     </row>
-    <row r="100" spans="1:16" ht="15">
+    <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -13533,7 +13530,7 @@
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
     </row>
-    <row r="101" spans="1:16" ht="15">
+    <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -13554,7 +13551,7 @@
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
     </row>
-    <row r="102" spans="1:16" ht="15">
+    <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -13602,30 +13599,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" customWidth="1"/>
-    <col min="16" max="16" width="26.6328125" customWidth="1"/>
-    <col min="17" max="1019" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="26.625" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -13673,7 +13670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -13696,42 +13693,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.5">
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13746,34 +13743,34 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.5">
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -13786,23 +13783,23 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>326</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13815,7 +13812,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13825,7 +13822,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13838,7 +13835,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13848,7 +13845,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13861,7 +13858,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -13871,7 +13868,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13892,7 +13889,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13913,7 +13910,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13934,7 +13931,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13955,7 +13952,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13976,7 +13973,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13997,7 +13994,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14018,7 +14015,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14039,7 +14036,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14060,7 +14057,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14081,7 +14078,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14102,7 +14099,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14123,7 +14120,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14144,7 +14141,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14165,7 +14162,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14186,7 +14183,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15">
+    <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14207,7 +14204,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="15">
+    <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14228,7 +14225,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="15">
+    <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14249,7 +14246,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14270,7 +14267,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="15">
+    <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14291,7 +14288,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" ht="15">
+    <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14312,7 +14309,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" ht="15">
+    <row r="29" spans="1:16" ht="15.75">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14333,7 +14330,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16" ht="15.75">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14354,7 +14351,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" ht="15">
+    <row r="31" spans="1:16" ht="15.75">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14375,7 +14372,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" ht="15">
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14396,7 +14393,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16" ht="15.75">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14417,7 +14414,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="15">
+    <row r="34" spans="1:16" ht="15.75">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -14438,7 +14435,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -14459,7 +14456,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="1:16" ht="15">
+    <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -14480,7 +14477,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -14501,7 +14498,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
-    <row r="38" spans="1:16" ht="15">
+    <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -14522,7 +14519,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -14543,7 +14540,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -14564,7 +14561,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -14585,7 +14582,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -14606,7 +14603,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -14627,7 +14624,7 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
     </row>
-    <row r="44" spans="1:16" ht="15">
+    <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -14648,7 +14645,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -14669,7 +14666,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="1:16" ht="15">
+    <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -14690,7 +14687,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -14711,7 +14708,7 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="1:16" ht="15">
+    <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -14732,7 +14729,7 @@
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -14753,7 +14750,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="1:16" ht="15">
+    <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -14774,7 +14771,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
     </row>
-    <row r="51" spans="1:16" ht="15">
+    <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -14795,7 +14792,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="1:16" ht="15">
+    <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -14816,7 +14813,7 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
     </row>
-    <row r="53" spans="1:16" ht="15">
+    <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -14837,7 +14834,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="1:16" ht="15">
+    <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -14858,7 +14855,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
     </row>
-    <row r="55" spans="1:16" ht="15">
+    <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -14879,7 +14876,7 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
     </row>
-    <row r="56" spans="1:16" ht="15">
+    <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -14900,7 +14897,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="1:16" ht="15">
+    <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -14921,7 +14918,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="1:16" ht="15">
+    <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -14942,7 +14939,7 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="1:16" ht="15">
+    <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -14963,7 +14960,7 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="1:16" ht="15">
+    <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -14984,7 +14981,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="1:16" ht="15">
+    <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -15005,7 +15002,7 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="1:16" ht="15">
+    <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -15026,7 +15023,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
     </row>
-    <row r="63" spans="1:16" ht="15">
+    <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -15047,7 +15044,7 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
     </row>
-    <row r="64" spans="1:16" ht="15">
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -15068,7 +15065,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
     </row>
-    <row r="65" spans="1:16" ht="15">
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -15089,7 +15086,7 @@
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
     </row>
-    <row r="66" spans="1:16" ht="15">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -15110,7 +15107,7 @@
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
     </row>
-    <row r="67" spans="1:16" ht="15">
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -15131,7 +15128,7 @@
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -15152,7 +15149,7 @@
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
     </row>
-    <row r="69" spans="1:16" ht="15">
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -15173,7 +15170,7 @@
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" spans="1:16" ht="15">
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -15194,7 +15191,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
     </row>
-    <row r="71" spans="1:16" ht="15">
+    <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -15215,7 +15212,7 @@
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
     </row>
-    <row r="72" spans="1:16" ht="15">
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -15236,7 +15233,7 @@
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
     </row>
-    <row r="73" spans="1:16" ht="15">
+    <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -15257,7 +15254,7 @@
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
     </row>
-    <row r="74" spans="1:16" ht="15">
+    <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -15278,7 +15275,7 @@
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
     </row>
-    <row r="75" spans="1:16" ht="15">
+    <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -15299,7 +15296,7 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
     </row>
-    <row r="76" spans="1:16" ht="15">
+    <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -15320,7 +15317,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
     </row>
-    <row r="77" spans="1:16" ht="15">
+    <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -15341,7 +15338,7 @@
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
     </row>
-    <row r="78" spans="1:16" ht="15">
+    <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -15362,7 +15359,7 @@
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
     </row>
-    <row r="79" spans="1:16" ht="15">
+    <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -15383,7 +15380,7 @@
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="1:16" ht="15">
+    <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -15404,7 +15401,7 @@
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="1:16" ht="15">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -15425,7 +15422,7 @@
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -15446,7 +15443,7 @@
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="1:16" ht="15">
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -15467,7 +15464,7 @@
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
     </row>
-    <row r="84" spans="1:16" ht="15">
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -15488,7 +15485,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="1:16" ht="15">
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -15509,7 +15506,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -15530,7 +15527,7 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -15551,7 +15548,7 @@
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -15572,7 +15569,7 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -15593,7 +15590,7 @@
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -15614,7 +15611,7 @@
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
     </row>
-    <row r="91" spans="1:16" ht="15">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -15635,7 +15632,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
     </row>
-    <row r="92" spans="1:16" ht="15">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -15656,7 +15653,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -15677,7 +15674,7 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="1:16" ht="15">
+    <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -15698,7 +15695,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
     </row>
-    <row r="95" spans="1:16" ht="15">
+    <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -15719,7 +15716,7 @@
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
     </row>
-    <row r="96" spans="1:16" ht="15">
+    <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -15740,7 +15737,7 @@
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
     </row>
-    <row r="97" spans="1:16" ht="15">
+    <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -15761,7 +15758,7 @@
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
     </row>
-    <row r="98" spans="1:16" ht="15">
+    <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -15782,7 +15779,7 @@
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
     </row>
-    <row r="99" spans="1:16" ht="15">
+    <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -15803,7 +15800,7 @@
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
     </row>
-    <row r="100" spans="1:16" ht="15">
+    <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -15824,7 +15821,7 @@
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
     </row>
-    <row r="101" spans="1:16" ht="15">
+    <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -15845,7 +15842,7 @@
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
     </row>
-    <row r="102" spans="1:16" ht="15">
+    <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
